--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="156">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -453,6 +454,48 @@
   </si>
   <si>
     <t>Relasi antara Tungguh dengan NamaInstrumen</t>
+  </si>
+  <si>
+    <t>memiliki Jumlah Nada</t>
+  </si>
+  <si>
+    <t>memiliki Jumlah Pemain</t>
+  </si>
+  <si>
+    <t>memiliki Laras</t>
+  </si>
+  <si>
+    <t>memiliki Peran</t>
+  </si>
+  <si>
+    <t>memiliki Teknik Permainan</t>
+  </si>
+  <si>
+    <t>memiliki Tungguh</t>
+  </si>
+  <si>
+    <t>menggunakan Barungan</t>
+  </si>
+  <si>
+    <t>Jumlah Bilah Atau Pencon</t>
+  </si>
+  <si>
+    <t>Jumlah Nada</t>
+  </si>
+  <si>
+    <t>Jumlah Pemain</t>
+  </si>
+  <si>
+    <t>Teknik Permainan</t>
+  </si>
+  <si>
+    <t>Jenis Nada</t>
+  </si>
+  <si>
+    <t>Banyak</t>
+  </si>
+  <si>
+    <t>merupakan Golongan Dari Barungan</t>
   </si>
 </sst>
 </file>
@@ -529,13 +572,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,91 +965,172 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>36</v>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
+      <c r="A7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
+      <c r="A8" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A10" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
+      <c r="A12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,7 +1142,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1784,4 +1922,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -496,6 +496,93 @@
   </si>
   <si>
     <t>merupakan Golongan Dari Barungan</t>
+  </si>
+  <si>
+    <t>Gamelan Babarongan</t>
+  </si>
+  <si>
+    <t>Gamelan Batel</t>
+  </si>
+  <si>
+    <t>Gamelan Batel Barong</t>
+  </si>
+  <si>
+    <t>Gamelan Batel Wayang Kulit</t>
+  </si>
+  <si>
+    <t>Gamelan Bebonangan</t>
+  </si>
+  <si>
+    <t>Gamelan Beleganjur</t>
+  </si>
+  <si>
+    <t>Gamelan Gambang</t>
+  </si>
+  <si>
+    <t>Gamelan Gambuh</t>
+  </si>
+  <si>
+    <t>Gamelan Geguntangan/Pangarjaan</t>
+  </si>
+  <si>
+    <t>Gamelan Gender Wayang</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Bheri</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Dewa</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Gede</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Kebyar</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Luang</t>
+  </si>
+  <si>
+    <t>Gamelan Gong Suling</t>
+  </si>
+  <si>
+    <t>Gamelan Jegog</t>
+  </si>
+  <si>
+    <t>Gamelan Joged Bumbung</t>
+  </si>
+  <si>
+    <t>Gamelan Joged Pingitan</t>
+  </si>
+  <si>
+    <t>Gamelan Manikasanti</t>
+  </si>
+  <si>
+    <t>Gamelan Pelegongan</t>
+  </si>
+  <si>
+    <t>Gamelan Rindik</t>
+  </si>
+  <si>
+    <t>Gamelan Salukat</t>
+  </si>
+  <si>
+    <t>Gamelan Selonding</t>
+  </si>
+  <si>
+    <t>Gamelan Selonding Bebandem</t>
+  </si>
+  <si>
+    <t>Gamelan Selonding Tenganan</t>
+  </si>
+  <si>
+    <t>Gamelan Semaradana</t>
+  </si>
+  <si>
+    <t>Gamelan Tambur</t>
+  </si>
+  <si>
+    <t>Gamelan Semar Pegulingan</t>
   </si>
 </sst>
 </file>
@@ -873,9 +960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -965,7 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1926,14 +2011,259 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,10 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -583,13 +587,58 @@
   </si>
   <si>
     <t>Gamelan Semar Pegulingan</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Keselu-ruhan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +672,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -632,7 +694,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -655,14 +717,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -677,6 +886,97 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,6 +993,3552 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>6.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D17F-4278-9EC8-1B1D61C67E45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="485396432"/>
+        <c:axId val="485402008"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="485396432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485402008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="485402008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="485396432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet7!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$B$10:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE3B-4168-A685-875D4E4798D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="486460224"/>
+        <c:axId val="486460552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="486460224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486460552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="486460552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="486460224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1"/>
+              <a:t>Rerata Hasil Pengujian Akurasi Pencarian Sistem</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet8!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$C$10:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D0F-4F5E-B5F8-3AD829AA9EA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="495712304"/>
+        <c:axId val="495715256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="495712304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495715256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="495715256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495712304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1"/>
+              <a:t>Rerata Hasil Pengujian</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" baseline="0"/>
+              <a:t> Akurasi Penjelajahan Sistem</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet9!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$C$10:$G$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38F1-4E2C-A450-0ADF1D05E646}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="398456088"/>
+        <c:axId val="398452808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398456088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398452808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398452808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="id-ID"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398456088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -960,7 +4806,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -970,76 +4818,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="C9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1056,166 +4913,166 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="8" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="8" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1226,103 +5083,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="10"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1339,668 +5199,668 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2011,259 +5871,1571 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="31.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15">
+        <v>20</v>
+      </c>
+      <c r="F3" s="15">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20</v>
+      </c>
+      <c r="H3" s="15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="15">
+        <v>6.35</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="H5" s="15">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6</v>
+      </c>
+      <c r="F6" s="15">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15">
+        <v>6</v>
+      </c>
+      <c r="H6" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="15">
+        <v>7</v>
+      </c>
+      <c r="D8" s="15">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15">
+        <v>7</v>
+      </c>
+      <c r="F8" s="15">
+        <v>7</v>
+      </c>
+      <c r="G8" s="15">
+        <v>7</v>
+      </c>
+      <c r="H8" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="15">
+        <v>6.35</v>
+      </c>
+      <c r="D11" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="E11" s="15">
+        <v>6</v>
+      </c>
+      <c r="F11" s="15">
+        <v>6.1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>6.15</v>
+      </c>
+      <c r="H11" s="15">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="15">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15">
+        <v>6</v>
+      </c>
+      <c r="E12" s="15">
+        <v>6</v>
+      </c>
+      <c r="F12" s="15">
+        <v>6</v>
+      </c>
+      <c r="G12" s="15">
+        <v>6</v>
+      </c>
+      <c r="H12" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="15">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15">
+        <v>7</v>
+      </c>
+      <c r="F14" s="15">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15">
+        <v>7</v>
+      </c>
+      <c r="H14" s="15">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="23">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23">
+        <v>20</v>
+      </c>
+      <c r="E3" s="23">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23">
+        <v>20</v>
+      </c>
+      <c r="H3" s="23">
+        <v>20</v>
+      </c>
+      <c r="I3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23">
+        <v>6.05</v>
+      </c>
+      <c r="D5" s="23">
+        <v>5.95</v>
+      </c>
+      <c r="E5" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="F5" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>6.05</v>
+      </c>
+      <c r="H5" s="23">
+        <v>6.25</v>
+      </c>
+      <c r="I5" s="13">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23">
+        <v>6</v>
+      </c>
+      <c r="E6" s="23">
+        <v>6</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6</v>
+      </c>
+      <c r="H6" s="23">
+        <v>6</v>
+      </c>
+      <c r="I6" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>4</v>
+      </c>
+      <c r="E7" s="23">
+        <v>5</v>
+      </c>
+      <c r="F7" s="23">
+        <v>4</v>
+      </c>
+      <c r="G7" s="23">
+        <v>4</v>
+      </c>
+      <c r="H7" s="23">
+        <v>4</v>
+      </c>
+      <c r="I7" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23">
+        <v>7</v>
+      </c>
+      <c r="E8" s="23">
+        <v>7</v>
+      </c>
+      <c r="F8" s="23">
+        <v>7</v>
+      </c>
+      <c r="G8" s="23">
+        <v>7</v>
+      </c>
+      <c r="H8" s="23">
+        <v>7</v>
+      </c>
+      <c r="I8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="23">
+        <v>6.05</v>
+      </c>
+      <c r="D11" s="23">
+        <v>5.95</v>
+      </c>
+      <c r="E11" s="23">
+        <v>6.3</v>
+      </c>
+      <c r="F11" s="23">
+        <v>6.2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>6.05</v>
+      </c>
+      <c r="H11" s="23">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23">
+        <v>6</v>
+      </c>
+      <c r="E12" s="23">
+        <v>6</v>
+      </c>
+      <c r="F12" s="23">
+        <v>6</v>
+      </c>
+      <c r="G12" s="23">
+        <v>6</v>
+      </c>
+      <c r="H12" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23">
+        <v>4</v>
+      </c>
+      <c r="D13" s="23">
+        <v>4</v>
+      </c>
+      <c r="E13" s="23">
+        <v>5</v>
+      </c>
+      <c r="F13" s="23">
+        <v>4</v>
+      </c>
+      <c r="G13" s="23">
+        <v>4</v>
+      </c>
+      <c r="H13" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23">
+        <v>7</v>
+      </c>
+      <c r="F14" s="23">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23">
+        <v>7</v>
+      </c>
+      <c r="H14" s="23">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="23">
+        <v>20</v>
+      </c>
+      <c r="D3" s="23">
+        <v>20</v>
+      </c>
+      <c r="E3" s="23">
+        <v>20</v>
+      </c>
+      <c r="F3" s="23">
+        <v>20</v>
+      </c>
+      <c r="G3" s="23">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="23">
+        <v>2</v>
+      </c>
+      <c r="G5" s="23">
+        <v>2</v>
+      </c>
+      <c r="H5" s="13">
+        <f>AVERAGE(C5:G5)</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>2</v>
+      </c>
+      <c r="H6" s="13">
+        <f>MEDIAN(C6:G6)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23">
+        <v>2</v>
+      </c>
+      <c r="G7" s="23">
+        <v>2</v>
+      </c>
+      <c r="H7" s="13">
+        <f>MIN(C7:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="23">
+        <v>2</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2</v>
+      </c>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13">
+        <f>MAX(C8:G8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1.9</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2</v>
+      </c>
+      <c r="G11" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="23">
+        <v>0</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2</v>
+      </c>
+      <c r="G13" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="23">
+        <v>2</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2</v>
+      </c>
+      <c r="E14" s="23">
+        <v>2</v>
+      </c>
+      <c r="F14" s="23">
+        <v>2</v>
+      </c>
+      <c r="G14" s="23">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="30">
+        <v>20</v>
+      </c>
+      <c r="D3" s="30">
+        <v>20</v>
+      </c>
+      <c r="E3" s="30">
+        <v>20</v>
+      </c>
+      <c r="F3" s="30">
+        <v>20</v>
+      </c>
+      <c r="G3" s="30">
+        <v>20</v>
+      </c>
+      <c r="H3" s="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40"/>
+      <c r="B4" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="41"/>
+      <c r="C5" s="30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D5" s="30">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="30">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <f>AVERAGE(C5:G5)</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30">
+        <v>1</v>
+      </c>
+      <c r="E6" s="30">
+        <v>1</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1</v>
+      </c>
+      <c r="G6" s="30">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <f>MEDIAN(C6:G6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="30">
+        <v>1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>1</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>1</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <f>MIN(C7:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="30">
+        <v>2</v>
+      </c>
+      <c r="D8" s="30">
+        <v>2</v>
+      </c>
+      <c r="E8" s="30">
+        <v>2</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+      <c r="G8" s="30">
+        <v>2</v>
+      </c>
+      <c r="H8" s="13">
+        <f>MAX(C8:G8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="30">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="30">
+        <v>2</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="30">
+        <v>2</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="30">
+        <v>2</v>
+      </c>
+      <c r="D14" s="30">
+        <v>2</v>
+      </c>
+      <c r="E14" s="30">
+        <v>2</v>
+      </c>
+      <c r="F14" s="30">
+        <v>2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>2</v>
+      </c>
+      <c r="H14" s="28">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="216">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -632,6 +633,54 @@
   </si>
   <si>
     <t>Keselu-ruhan</t>
+  </si>
+  <si>
+    <t>Tempat</t>
+  </si>
+  <si>
+    <t>Kardinalitas Tujuan (Maks.)</t>
+  </si>
+  <si>
+    <t>Satu</t>
+  </si>
+  <si>
+    <t>adalah Instrumen Dari</t>
+  </si>
+  <si>
+    <t>adalah Laras Dari</t>
+  </si>
+  <si>
+    <t>adalah Peran Dari</t>
+  </si>
+  <si>
+    <t>adalah Jenis Nada Dari</t>
+  </si>
+  <si>
+    <t>adalah Jumlah Bilah Atau Pencon Dari</t>
+  </si>
+  <si>
+    <t>terdapat Di</t>
+  </si>
+  <si>
+    <t>adalah Teknik Permainan Dari</t>
+  </si>
+  <si>
+    <t>adalah Tungguh Dari</t>
+  </si>
+  <si>
+    <t>digunakan Pada Kegiatan</t>
+  </si>
+  <si>
+    <t>adalah Jumlah Nada Dari</t>
+  </si>
+  <si>
+    <t>adalah Jumlah Pemain Dari</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Nama Individual</t>
   </si>
 </sst>
 </file>
@@ -869,23 +918,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -900,34 +937,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,6 +955,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -960,22 +1003,37 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4807,7 +4865,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,261 +4876,693 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="15">
+        <v>20</v>
+      </c>
+      <c r="D3" s="15">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15">
+        <v>20</v>
+      </c>
+      <c r="F3" s="15">
+        <v>20</v>
+      </c>
+      <c r="G3" s="15">
+        <v>20</v>
+      </c>
+      <c r="H3" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="33"/>
+      <c r="B4" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0</v>
+      </c>
+      <c r="E4" s="15">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <f>AVERAGE(C5:G5)</f>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <f>MEDIAN(C6:G6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <f>MIN(C7:G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>2</v>
+      </c>
+      <c r="G8" s="15">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
+        <f>MAX(C8:G8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" s="15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D11" s="15">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="15">
+        <v>2</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15">
+        <v>2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>2</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2</v>
+      </c>
+      <c r="G13" s="15">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2</v>
+      </c>
+      <c r="H14" s="13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.85546875" style="2"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="2"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="D2" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="37" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="F5" s="37" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="F6" s="37" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="F7" s="37" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="F8" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="F9" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="7" t="s">
+      <c r="B10" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="F10" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7" t="s">
+      <c r="B11" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="F11" s="37" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="7" t="s">
+      <c r="B12" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="F12" s="37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7"/>
+      <c r="B13" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="E13" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5083,7 +5573,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5093,96 +5585,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5194,673 +5686,673 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.7109375" style="40" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="40" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="37" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="37" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5871,257 +6363,358 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="31.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.5703125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="42" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="37" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C3" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="37" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="C4" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="37" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="C5" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="37" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C6" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="37" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="C7" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="37" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="C8" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="38">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="37" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="C9" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="37" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="C10" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="37" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="C11" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="38">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="37" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="C12" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="37" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="C13" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="37" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="C14" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="37" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="C15" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="38">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="37" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="C16" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="38">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="37" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="C17" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="38">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="37" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C18" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="38">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B19" s="37" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="C19" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="37" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C20" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="37" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C21" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="37" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C22" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B23" s="37" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C23" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="38">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="37" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C24" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="38">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B25" s="37" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="C25" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="38">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B26" s="37" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="C26" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="38">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="37" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="C27" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="38">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="37" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="C28" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="38">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="37" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="C29" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="38">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="37" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="C30" s="37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="38">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B31" s="37" t="s">
         <v>183</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6130,6 +6723,37 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -6140,36 +6764,36 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>191</v>
       </c>
     </row>
@@ -6177,284 +6801,284 @@
       <c r="A3" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <v>20</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="9">
         <v>20</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>20</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="9">
         <v>20</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="9">
         <v>20</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="9">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>0</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="9">
         <v>0</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="9">
         <v>0</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="15">
+      <c r="B5" s="17"/>
+      <c r="C5" s="9">
         <v>6.35</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="9">
         <v>6.1</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>6</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="9">
         <v>6.1</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="9">
         <v>6.15</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="9">
         <v>6.05</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="15">
+      <c r="B6" s="17"/>
+      <c r="C6" s="9">
         <v>6</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>6</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>6</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="9">
         <v>6</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="9">
         <v>6</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="15">
+      <c r="B7" s="17"/>
+      <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="9">
         <v>4</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="9">
         <v>5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="15">
+      <c r="B8" s="17"/>
+      <c r="C8" s="9">
         <v>7</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="9">
         <v>7</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>7</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="9">
         <v>7</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="9">
         <v>7</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="15">
+      <c r="B11" s="17"/>
+      <c r="C11" s="9">
         <v>6.35</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>6.1</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <v>6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="9">
         <v>6.1</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="9">
         <v>6.15</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="9">
         <v>6.05</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="15">
+      <c r="B12" s="17"/>
+      <c r="C12" s="9">
         <v>6</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="9">
         <v>6</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>6</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="9">
         <v>6</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="9">
         <v>6</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="15">
+      <c r="B13" s="17"/>
+      <c r="C13" s="9">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="9">
         <v>4</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="9">
         <v>4</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="9">
         <v>5</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="15">
+      <c r="B14" s="17"/>
+      <c r="C14" s="9">
         <v>7</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="9">
         <v>7</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>7</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="9">
         <v>7</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="9">
         <v>7</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="9">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -6465,330 +7089,325 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="10">
         <v>20</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="10">
         <v>20</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="10">
         <v>20</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>20</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="10">
         <v>20</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="10">
         <v>0</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23">
+      <c r="B5" s="17"/>
+      <c r="C5" s="10">
         <v>6.05</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="10">
         <v>5.95</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="10">
         <v>6.3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="10">
         <v>6.2</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="10">
         <v>6.05</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="10">
         <v>6.25</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="7">
         <v>6.13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23">
+      <c r="B6" s="17"/>
+      <c r="C6" s="10">
         <v>6</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="10">
         <v>6</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="10">
         <v>6</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="10">
         <v>6</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="10">
         <v>6</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23">
+      <c r="B7" s="17"/>
+      <c r="C7" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="10">
         <v>4</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="10">
         <v>5</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="10">
         <v>4</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="10">
         <v>4</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="10">
         <v>4</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23">
+      <c r="B8" s="17"/>
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="10">
         <v>7</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="7">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="7" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="23">
+      <c r="B11" s="17"/>
+      <c r="C11" s="10">
         <v>6.05</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="10">
         <v>5.95</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="10">
         <v>6.3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="10">
         <v>6.2</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="10">
         <v>6.05</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="10">
         <v>6.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23">
+      <c r="B12" s="17"/>
+      <c r="C12" s="10">
         <v>6</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="10">
         <v>6</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="10">
         <v>6</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="10">
         <v>6</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="10">
         <v>6</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23">
+      <c r="B13" s="17"/>
+      <c r="C13" s="10">
         <v>4</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="10">
         <v>4</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="10">
         <v>5</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="10">
         <v>4</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="10">
         <v>4</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23">
+      <c r="B14" s="17"/>
+      <c r="C14" s="10">
         <v>7</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="10">
         <v>7</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="10">
         <v>7</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="10">
         <v>7</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="10">
         <v>7</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="10">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:I2"/>
@@ -6796,13 +7415,18 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -6813,627 +7437,302 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="23" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="25"/>
+      <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="10">
         <v>20</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="10">
         <v>20</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="10">
         <v>20</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="10">
         <v>20</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="7">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="10">
         <v>0</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="10">
         <v>0</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="10">
         <v>0</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="23">
+      <c r="B5" s="17"/>
+      <c r="C5" s="10">
         <v>1.9</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="23">
-        <v>2</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2</v>
-      </c>
-      <c r="G5" s="23">
-        <v>2</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
         <f>AVERAGE(C5:G5)</f>
         <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23">
-        <v>2</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="B6" s="17"/>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
         <v>1</v>
       </c>
-      <c r="E6" s="23">
-        <v>2</v>
-      </c>
-      <c r="F6" s="23">
-        <v>2</v>
-      </c>
-      <c r="G6" s="23">
-        <v>2</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>2</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
         <f>MEDIAN(C6:G6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23">
+      <c r="B7" s="17"/>
+      <c r="C7" s="10">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="23">
-        <v>2</v>
-      </c>
-      <c r="F7" s="23">
-        <v>2</v>
-      </c>
-      <c r="G7" s="23">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>2</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
         <f>MIN(C7:G7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="23">
-        <v>2</v>
-      </c>
-      <c r="D8" s="23">
-        <v>2</v>
-      </c>
-      <c r="E8" s="23">
-        <v>2</v>
-      </c>
-      <c r="F8" s="23">
-        <v>2</v>
-      </c>
-      <c r="G8" s="23">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="B8" s="17"/>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="7">
         <f>MAX(C8:G8)</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="10">
         <v>1.9</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="10">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E11" s="23">
-        <v>2</v>
-      </c>
-      <c r="F11" s="23">
-        <v>2</v>
-      </c>
-      <c r="G11" s="23">
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
+      <c r="B12" s="17"/>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="23">
-        <v>2</v>
-      </c>
-      <c r="F12" s="23">
-        <v>2</v>
-      </c>
-      <c r="G12" s="23">
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="23">
+      <c r="B13" s="17"/>
+      <c r="C13" s="10">
         <v>0</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="23">
-        <v>2</v>
-      </c>
-      <c r="F13" s="23">
-        <v>2</v>
-      </c>
-      <c r="G13" s="23">
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="23">
-        <v>2</v>
-      </c>
-      <c r="D14" s="23">
-        <v>2</v>
-      </c>
-      <c r="E14" s="23">
-        <v>2</v>
-      </c>
-      <c r="F14" s="23">
-        <v>2</v>
-      </c>
-      <c r="G14" s="23">
+      <c r="B14" s="17"/>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>192</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="30">
-        <v>20</v>
-      </c>
-      <c r="D3" s="30">
-        <v>20</v>
-      </c>
-      <c r="E3" s="30">
-        <v>20</v>
-      </c>
-      <c r="F3" s="30">
-        <v>20</v>
-      </c>
-      <c r="G3" s="30">
-        <v>20</v>
-      </c>
-      <c r="H3" s="28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C4" s="30">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="30">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D5" s="30">
-        <v>1.05</v>
-      </c>
-      <c r="E5" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G5" s="30">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <f>AVERAGE(C5:G5)</f>
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="30">
-        <v>1</v>
-      </c>
-      <c r="D6" s="30">
-        <v>1</v>
-      </c>
-      <c r="E6" s="30">
-        <v>1</v>
-      </c>
-      <c r="F6" s="30">
-        <v>1</v>
-      </c>
-      <c r="G6" s="30">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <f>MEDIAN(C6:G6)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="30">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30">
-        <v>1</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>1</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="13">
-        <f>MIN(C7:G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="30">
-        <v>2</v>
-      </c>
-      <c r="D8" s="30">
-        <v>2</v>
-      </c>
-      <c r="E8" s="30">
-        <v>2</v>
-      </c>
-      <c r="F8" s="30">
-        <v>2</v>
-      </c>
-      <c r="G8" s="30">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13">
-        <f>MAX(C8:G8)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>188</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="C11" s="30">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D11" s="30">
-        <v>1.05</v>
-      </c>
-      <c r="E11" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F11" s="30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G11" s="30">
-        <v>1</v>
-      </c>
-      <c r="H11" s="28">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="30">
-        <v>2</v>
-      </c>
-      <c r="D12" s="30">
-        <v>1</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2</v>
-      </c>
-      <c r="F12" s="30">
-        <v>2</v>
-      </c>
-      <c r="G12" s="30">
-        <v>2</v>
-      </c>
-      <c r="H12" s="28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>1</v>
-      </c>
-      <c r="E13" s="30">
-        <v>2</v>
-      </c>
-      <c r="F13" s="30">
-        <v>2</v>
-      </c>
-      <c r="G13" s="30">
-        <v>2</v>
-      </c>
-      <c r="H13" s="28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="30">
-        <v>2</v>
-      </c>
-      <c r="D14" s="30">
-        <v>2</v>
-      </c>
-      <c r="E14" s="30">
-        <v>2</v>
-      </c>
-      <c r="F14" s="30">
-        <v>2</v>
-      </c>
-      <c r="G14" s="30">
-        <v>2</v>
-      </c>
-      <c r="H14" s="28">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="620">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -681,6 +681,1218 @@
   </si>
   <si>
     <t>Nama Individual</t>
+  </si>
+  <si>
+    <t>10_Bilah</t>
+  </si>
+  <si>
+    <t>10_Orang</t>
+  </si>
+  <si>
+    <t>12_Orang</t>
+  </si>
+  <si>
+    <t>14_Pencon</t>
+  </si>
+  <si>
+    <t>15_Orang</t>
+  </si>
+  <si>
+    <t>1_Orang</t>
+  </si>
+  <si>
+    <t>1_Pencon</t>
+  </si>
+  <si>
+    <t>2_Orang</t>
+  </si>
+  <si>
+    <t>4_Nada</t>
+  </si>
+  <si>
+    <t>5_Nada</t>
+  </si>
+  <si>
+    <t>7_Bilah</t>
+  </si>
+  <si>
+    <t>7_Nada</t>
+  </si>
+  <si>
+    <t>7_Orang</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Amlapura</t>
+  </si>
+  <si>
+    <t>Amuk</t>
+  </si>
+  <si>
+    <t>AnginTopan</t>
+  </si>
+  <si>
+    <t>ArthaBhaya</t>
+  </si>
+  <si>
+    <t>Badung</t>
+  </si>
+  <si>
+    <t>Bali</t>
+  </si>
+  <si>
+    <t>BaliBarat</t>
+  </si>
+  <si>
+    <t>BaliSelatan</t>
+  </si>
+  <si>
+    <t>BaliTengah</t>
+  </si>
+  <si>
+    <t>BaliTimur</t>
+  </si>
+  <si>
+    <t>BaliUtara</t>
+  </si>
+  <si>
+    <t>Bambu</t>
+  </si>
+  <si>
+    <t>Banban</t>
+  </si>
+  <si>
+    <t>Bangli</t>
+  </si>
+  <si>
+    <t>BanjarAdatBendul</t>
+  </si>
+  <si>
+    <t>BanjarAdatKesimanKertalangu</t>
+  </si>
+  <si>
+    <t>BanjarAdatPenamparan</t>
+  </si>
+  <si>
+    <t>BanjarAdatSambahan</t>
+  </si>
+  <si>
+    <t>BanjarAdatUbudKaja</t>
+  </si>
+  <si>
+    <t>BanjarAdatUbudKelod</t>
+  </si>
+  <si>
+    <t>BanjarAdatUbudTengah</t>
+  </si>
+  <si>
+    <t>BanjarGulingan</t>
+  </si>
+  <si>
+    <t>BanjarParekan</t>
+  </si>
+  <si>
+    <t>BanjarSriJati</t>
+  </si>
+  <si>
+    <t>Banjir</t>
+  </si>
+  <si>
+    <t>BantangGending</t>
+  </si>
+  <si>
+    <t>BarunganAlit</t>
+  </si>
+  <si>
+    <t>BarunganMadya</t>
+  </si>
+  <si>
+    <t>Bebende</t>
+  </si>
+  <si>
+    <t>Bedug</t>
+  </si>
+  <si>
+    <t>Bende</t>
+  </si>
+  <si>
+    <t>BendesaAdatBendul</t>
+  </si>
+  <si>
+    <t>Berhadapan</t>
+  </si>
+  <si>
+    <t>Beriringan</t>
+  </si>
+  <si>
+    <t>Besi</t>
+  </si>
+  <si>
+    <t>Bhuta_Yadnya</t>
+  </si>
+  <si>
+    <t>BowedChordophones</t>
+  </si>
+  <si>
+    <t>Buleleng</t>
+  </si>
+  <si>
+    <t>Bulus</t>
+  </si>
+  <si>
+    <t>Bulus1</t>
+  </si>
+  <si>
+    <t>Bulus2</t>
+  </si>
+  <si>
+    <t>Bulus3</t>
+  </si>
+  <si>
+    <t>Calung</t>
+  </si>
+  <si>
+    <t>Caru</t>
+  </si>
+  <si>
+    <t>CengCeng</t>
+  </si>
+  <si>
+    <t>Denpasar</t>
+  </si>
+  <si>
+    <t>DesaAdatBatuan</t>
+  </si>
+  <si>
+    <t>DesaAdatKesiman</t>
+  </si>
+  <si>
+    <t>DesaAdatNegari</t>
+  </si>
+  <si>
+    <t>DesaAdatPadangSambian</t>
+  </si>
+  <si>
+    <t>DesaAdatSemarapura</t>
+  </si>
+  <si>
+    <t>DesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>DesaPakramanUbud</t>
+  </si>
+  <si>
+    <t>DesaTegalDarmasaba</t>
+  </si>
+  <si>
+    <t>Dewa_Yadnya</t>
+  </si>
+  <si>
+    <t>DoubleHeadMembranophones</t>
+  </si>
+  <si>
+    <t>Epidemi</t>
+  </si>
+  <si>
+    <t>GamelanAngklung</t>
+  </si>
+  <si>
+    <t>GamelanAnyar</t>
+  </si>
+  <si>
+    <t>GamelanBabarongan</t>
+  </si>
+  <si>
+    <t>GamelanBatel</t>
+  </si>
+  <si>
+    <t>GamelanBatelBarong</t>
+  </si>
+  <si>
+    <t>GamelanBatelWayangKulit</t>
+  </si>
+  <si>
+    <t>GamelanBebonangan</t>
+  </si>
+  <si>
+    <t>GamelanBeleganjur</t>
+  </si>
+  <si>
+    <t>GamelanGambang</t>
+  </si>
+  <si>
+    <t>GamelanGambuh</t>
+  </si>
+  <si>
+    <t>GamelanGeguntangan</t>
+  </si>
+  <si>
+    <t>GamelanGenderWayang</t>
+  </si>
+  <si>
+    <t>GamelanGongBheri</t>
+  </si>
+  <si>
+    <t>GamelanGongDewa</t>
+  </si>
+  <si>
+    <t>GamelanGongGede</t>
+  </si>
+  <si>
+    <t>GamelanGongKebyar</t>
+  </si>
+  <si>
+    <t>GamelanGongLuang</t>
+  </si>
+  <si>
+    <t>GamelanGongSuling</t>
+  </si>
+  <si>
+    <t>GamelanJegog</t>
+  </si>
+  <si>
+    <t>GamelanJogedBumbung</t>
+  </si>
+  <si>
+    <t>GamelanJogedPingitan</t>
+  </si>
+  <si>
+    <t>GamelanMadya</t>
+  </si>
+  <si>
+    <t>GamelanManikasanti</t>
+  </si>
+  <si>
+    <t>GamelanPangarjaan</t>
+  </si>
+  <si>
+    <t>GamelanPelegongan</t>
+  </si>
+  <si>
+    <t>GamelanRindik</t>
+  </si>
+  <si>
+    <t>GamelanSalukat</t>
+  </si>
+  <si>
+    <t>GamelanSelonding</t>
+  </si>
+  <si>
+    <t>GamelanSelondingBebandem</t>
+  </si>
+  <si>
+    <t>GamelanSelondingTenganan</t>
+  </si>
+  <si>
+    <t>GamelanSemaradana</t>
+  </si>
+  <si>
+    <t>GamelanSemarPegulingan</t>
+  </si>
+  <si>
+    <t>GamelanTambur</t>
+  </si>
+  <si>
+    <t>GamelanTua</t>
+  </si>
+  <si>
+    <t>Gangsa</t>
+  </si>
+  <si>
+    <t>GangsaPemade</t>
+  </si>
+  <si>
+    <t>GangsaPemadePengisep</t>
+  </si>
+  <si>
+    <t>GangsaPemadePengumbang</t>
+  </si>
+  <si>
+    <t>GegebugNerompong</t>
+  </si>
+  <si>
+    <t>GegebugNgerejeg</t>
+  </si>
+  <si>
+    <t>GegebugNgubit</t>
+  </si>
+  <si>
+    <t>GegebugNgundir</t>
+  </si>
+  <si>
+    <t>GegebugNyogcag</t>
+  </si>
+  <si>
+    <t>GegebugRereongan</t>
+  </si>
+  <si>
+    <t>GegebugSekati</t>
+  </si>
+  <si>
+    <t>GempaBumi</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Genderambat</t>
+  </si>
+  <si>
+    <t>GenderBarangan</t>
+  </si>
+  <si>
+    <t>GenderPengisep</t>
+  </si>
+  <si>
+    <t>GenderPengumbang</t>
+  </si>
+  <si>
+    <t>GenderWayang</t>
+  </si>
+  <si>
+    <t>Gianyar</t>
+  </si>
+  <si>
+    <t>Giying</t>
+  </si>
+  <si>
+    <t>Gong</t>
+  </si>
+  <si>
+    <t>GongAgeng</t>
+  </si>
+  <si>
+    <t>GongAlit</t>
+  </si>
+  <si>
+    <t>GongBaleganjur</t>
+  </si>
+  <si>
+    <t>GongLanang</t>
+  </si>
+  <si>
+    <t>GongLuang</t>
+  </si>
+  <si>
+    <t>GongPulu</t>
+  </si>
+  <si>
+    <t>GongWadon</t>
+  </si>
+  <si>
+    <t>Guntang</t>
+  </si>
+  <si>
+    <t>GunungMeletus</t>
+  </si>
+  <si>
+    <t>InstrumenBerbilah</t>
+  </si>
+  <si>
+    <t>InstrumenBerpencon</t>
+  </si>
+  <si>
+    <t>Jegog</t>
+  </si>
+  <si>
+    <t>Jegogan</t>
+  </si>
+  <si>
+    <t>JegogPengisep</t>
+  </si>
+  <si>
+    <t>JegogPengumbang</t>
+  </si>
+  <si>
+    <t>Jembrana</t>
+  </si>
+  <si>
+    <t>JiwaBhaya</t>
+  </si>
+  <si>
+    <t>Jublag</t>
+  </si>
+  <si>
+    <t>Kabaak</t>
+  </si>
+  <si>
+    <t>Kaculik</t>
+  </si>
+  <si>
+    <t>Kajar</t>
+  </si>
+  <si>
+    <t>Kalor</t>
+  </si>
+  <si>
+    <t>Kantil</t>
+  </si>
+  <si>
+    <t>Kaplegadang</t>
+  </si>
+  <si>
+    <t>Karangasem</t>
+  </si>
+  <si>
+    <t>KayuBedau</t>
+  </si>
+  <si>
+    <t>KayuBengkel</t>
+  </si>
+  <si>
+    <t>KayuCamplung</t>
+  </si>
+  <si>
+    <t>KayuIntaran</t>
+  </si>
+  <si>
+    <t>KayuJati</t>
+  </si>
+  <si>
+    <t>KayuKetewel</t>
+  </si>
+  <si>
+    <t>KayuMajegau</t>
+  </si>
+  <si>
+    <t>KayuNangka</t>
+  </si>
+  <si>
+    <t>KayuPandan</t>
+  </si>
+  <si>
+    <t>KayuSiligui</t>
+  </si>
+  <si>
+    <t>Kebakaran</t>
+  </si>
+  <si>
+    <t>Kebyog</t>
+  </si>
+  <si>
+    <t>KecAbang</t>
+  </si>
+  <si>
+    <t>KecAbianSemal</t>
+  </si>
+  <si>
+    <t>KecBangli</t>
+  </si>
+  <si>
+    <t>KecBanjar</t>
+  </si>
+  <si>
+    <t>KecBanjarangkan</t>
+  </si>
+  <si>
+    <t>KecBaturiti</t>
+  </si>
+  <si>
+    <t>KecBebandem</t>
+  </si>
+  <si>
+    <t>KecBlahBatuh</t>
+  </si>
+  <si>
+    <t>KecBuleleng</t>
+  </si>
+  <si>
+    <t>KecBusungBiu</t>
+  </si>
+  <si>
+    <t>KecDawan</t>
+  </si>
+  <si>
+    <t>KecDenpasarBarat</t>
+  </si>
+  <si>
+    <t>KecDenpasarSelatan</t>
+  </si>
+  <si>
+    <t>KecDenpasarTimur</t>
+  </si>
+  <si>
+    <t>KecDenpasarUtara</t>
+  </si>
+  <si>
+    <t>KecGerokgak</t>
+  </si>
+  <si>
+    <t>KecGianyar</t>
+  </si>
+  <si>
+    <t>KecJembrana</t>
+  </si>
+  <si>
+    <t>KecKarambitan</t>
+  </si>
+  <si>
+    <t>KecKarangasem</t>
+  </si>
+  <si>
+    <t>KecKediri</t>
+  </si>
+  <si>
+    <t>KecKintamani</t>
+  </si>
+  <si>
+    <t>KecKlungkung</t>
+  </si>
+  <si>
+    <t>KecKubu</t>
+  </si>
+  <si>
+    <t>KecKubuTambahan</t>
+  </si>
+  <si>
+    <t>KecKuta</t>
+  </si>
+  <si>
+    <t>KecKutaSelatan</t>
+  </si>
+  <si>
+    <t>KecKutaUtara</t>
+  </si>
+  <si>
+    <t>KecManggis</t>
+  </si>
+  <si>
+    <t>KecMarga</t>
+  </si>
+  <si>
+    <t>KecMelaya</t>
+  </si>
+  <si>
+    <t>KecMendoyo</t>
+  </si>
+  <si>
+    <t>KecMengwi</t>
+  </si>
+  <si>
+    <t>KecNegara</t>
+  </si>
+  <si>
+    <t>KecNusaPenida</t>
+  </si>
+  <si>
+    <t>KecPayangan</t>
+  </si>
+  <si>
+    <t>KecPekutatan</t>
+  </si>
+  <si>
+    <t>KecPenebel</t>
+  </si>
+  <si>
+    <t>KecPetang</t>
+  </si>
+  <si>
+    <t>KecPupuan</t>
+  </si>
+  <si>
+    <t>KecRendang</t>
+  </si>
+  <si>
+    <t>KecSawan</t>
+  </si>
+  <si>
+    <t>KecSelat</t>
+  </si>
+  <si>
+    <t>KecSelemadeg</t>
+  </si>
+  <si>
+    <t>KecSelemadegBarat</t>
+  </si>
+  <si>
+    <t>KecSelemadegTimur</t>
+  </si>
+  <si>
+    <t>KecSemarapura</t>
+  </si>
+  <si>
+    <t>KecSeririt</t>
+  </si>
+  <si>
+    <t>KecSidemen</t>
+  </si>
+  <si>
+    <t>KecSukasada</t>
+  </si>
+  <si>
+    <t>KecSukawati</t>
+  </si>
+  <si>
+    <t>KecSusut</t>
+  </si>
+  <si>
+    <t>KecTabanan</t>
+  </si>
+  <si>
+    <t>KecTampakSiring</t>
+  </si>
+  <si>
+    <t>KecTegallalang</t>
+  </si>
+  <si>
+    <t>KecTejaKula</t>
+  </si>
+  <si>
+    <t>KecTembuku</t>
+  </si>
+  <si>
+    <t>KecUbud</t>
+  </si>
+  <si>
+    <t>Kelentungan1</t>
+  </si>
+  <si>
+    <t>Kelentungan2</t>
+  </si>
+  <si>
+    <t>Kelentungan3</t>
+  </si>
+  <si>
+    <t>Kelentungan4</t>
+  </si>
+  <si>
+    <t>Kelentungan5</t>
+  </si>
+  <si>
+    <t>Kelentungan6</t>
+  </si>
+  <si>
+    <t>KelentunganBanban</t>
+  </si>
+  <si>
+    <t>KelentunganLambat</t>
+  </si>
+  <si>
+    <t>KelentunganLambat9</t>
+  </si>
+  <si>
+    <t>Kemalingan</t>
+  </si>
+  <si>
+    <t>Kemong</t>
+  </si>
+  <si>
+    <t>Kempli</t>
+  </si>
+  <si>
+    <t>Kempluk</t>
+  </si>
+  <si>
+    <t>Kempul</t>
+  </si>
+  <si>
+    <t>KempulAgeng</t>
+  </si>
+  <si>
+    <t>KempulAlit</t>
+  </si>
+  <si>
+    <t>Kempur</t>
+  </si>
+  <si>
+    <t>Kendang</t>
+  </si>
+  <si>
+    <t>KendangLanang</t>
+  </si>
+  <si>
+    <t>KendangWadon</t>
+  </si>
+  <si>
+    <t>Klenang</t>
+  </si>
+  <si>
+    <t>Kleneng</t>
+  </si>
+  <si>
+    <t>Klungkung</t>
+  </si>
+  <si>
+    <t>Kolotomis</t>
+  </si>
+  <si>
+    <t>KotaBangli</t>
+  </si>
+  <si>
+    <t>KotaDenpasar</t>
+  </si>
+  <si>
+    <t>KotaGianyar</t>
+  </si>
+  <si>
+    <t>KotaTabanan</t>
+  </si>
+  <si>
+    <t>Kotekan</t>
+  </si>
+  <si>
+    <t>Krenet</t>
+  </si>
+  <si>
+    <t>Kulit</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatBendul</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatKertalangu</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatPenamparan</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatSambahan</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatUbudKaja</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatUbudKelod</t>
+  </si>
+  <si>
+    <t>KulkulBanjarAdatUbudTengah</t>
+  </si>
+  <si>
+    <t>KulkulDesaAdatNegari</t>
+  </si>
+  <si>
+    <t>KulkulDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>KulkulPuraDalemDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>KulkulPuraDesaDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>KulkulPuraPusehDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>Kuning</t>
+  </si>
+  <si>
+    <t>Logam</t>
+  </si>
+  <si>
+    <t>Mangunpura</t>
+  </si>
+  <si>
+    <t>Manusa_Yadnya</t>
+  </si>
+  <si>
+    <t>MatunPoh</t>
+  </si>
+  <si>
+    <t>Mecaru</t>
+  </si>
+  <si>
+    <t>MecaruAgung</t>
+  </si>
+  <si>
+    <t>Melahirkan</t>
+  </si>
+  <si>
+    <t>Melaspas</t>
+  </si>
+  <si>
+    <t>Melodis</t>
+  </si>
+  <si>
+    <t>Membelakangi</t>
+  </si>
+  <si>
+    <t>Menanga</t>
+  </si>
+  <si>
+    <t>MenangaPengisep</t>
+  </si>
+  <si>
+    <t>MenangaPengumbang</t>
+  </si>
+  <si>
+    <t>Meninggal</t>
+  </si>
+  <si>
+    <t>Meprayascita</t>
+  </si>
+  <si>
+    <t>Merah</t>
+  </si>
+  <si>
+    <t>Negara</t>
+  </si>
+  <si>
+    <t>Nerungtung</t>
+  </si>
+  <si>
+    <t>Ngaben</t>
+  </si>
+  <si>
+    <t>Nganten</t>
+  </si>
+  <si>
+    <t>Ngayah</t>
+  </si>
+  <si>
+    <t>Ngelawang</t>
+  </si>
+  <si>
+    <t>NgembakGeni</t>
+  </si>
+  <si>
+    <t>Ngentimin</t>
+  </si>
+  <si>
+    <t>Ngerupuk</t>
+  </si>
+  <si>
+    <t>NgumbangNgisep</t>
+  </si>
+  <si>
+    <t>NonFreeAerophones</t>
+  </si>
+  <si>
+    <t>NungTit</t>
+  </si>
+  <si>
+    <t>NungTitBecat</t>
+  </si>
+  <si>
+    <t>NungTitLambat</t>
+  </si>
+  <si>
+    <t>Nyangsih</t>
+  </si>
+  <si>
+    <t>NyongNyong</t>
+  </si>
+  <si>
+    <t>NyongNyongAgeng</t>
+  </si>
+  <si>
+    <t>NyongNyongAlit</t>
+  </si>
+  <si>
+    <t>Odalan</t>
+  </si>
+  <si>
+    <t>PangkonRicik</t>
+  </si>
+  <si>
+    <t>Parum</t>
+  </si>
+  <si>
+    <t>PelawahKayu</t>
+  </si>
+  <si>
+    <t>Pemade</t>
+  </si>
+  <si>
+    <t>Pemanis</t>
+  </si>
+  <si>
+    <t>PembuatFrasa</t>
+  </si>
+  <si>
+    <t>Penandan</t>
+  </si>
+  <si>
+    <t>Penem</t>
+  </si>
+  <si>
+    <t>Pengembang</t>
+  </si>
+  <si>
+    <t>Pengisep</t>
+  </si>
+  <si>
+    <t>Pengolaborasi</t>
+  </si>
+  <si>
+    <t>Pengramen</t>
+  </si>
+  <si>
+    <t>Penyacah</t>
+  </si>
+  <si>
+    <t>Penyalin</t>
+  </si>
+  <si>
+    <t>Pepayasan</t>
+  </si>
+  <si>
+    <t>Perang</t>
+  </si>
+  <si>
+    <t>PertolonganSelesai</t>
+  </si>
+  <si>
+    <t>PertunjukanSeniDramatari</t>
+  </si>
+  <si>
+    <t>PertunjukanSeniMusik</t>
+  </si>
+  <si>
+    <t>PertunjukanSeniTari</t>
+  </si>
+  <si>
+    <t>PertunjukanSeniTeater</t>
+  </si>
+  <si>
+    <t>PertunjukanSeniWayang</t>
+  </si>
+  <si>
+    <t>Perunggu</t>
+  </si>
+  <si>
+    <t>PesuMulih</t>
+  </si>
+  <si>
+    <t>Petirtaan</t>
+  </si>
+  <si>
+    <t>Petuduh</t>
+  </si>
+  <si>
+    <t>Piodalan</t>
+  </si>
+  <si>
+    <t>Pitra_Yadnya</t>
+  </si>
+  <si>
+    <t>Plaspas</t>
+  </si>
+  <si>
+    <t>PluckedChordophones</t>
+  </si>
+  <si>
+    <t>Poleng</t>
+  </si>
+  <si>
+    <t>Ponggang</t>
+  </si>
+  <si>
+    <t>Prayascita</t>
+  </si>
+  <si>
+    <t>PuraDalemDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>PuraDalemGegelang</t>
+  </si>
+  <si>
+    <t>PuraDesaDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>PuraPusehDesaPakramanKedewatan</t>
+  </si>
+  <si>
+    <t>PuriKlungkung</t>
+  </si>
+  <si>
+    <t>PuriPemecutan</t>
+  </si>
+  <si>
+    <t>PuriSibanggede</t>
+  </si>
+  <si>
+    <t>Purnama</t>
+  </si>
+  <si>
+    <t>Putih</t>
+  </si>
+  <si>
+    <t>PutihKuning</t>
+  </si>
+  <si>
+    <t>Rebab</t>
+  </si>
+  <si>
+    <t>Reyong</t>
+  </si>
+  <si>
+    <t>Rincik</t>
+  </si>
+  <si>
+    <t>Ritmis</t>
+  </si>
+  <si>
+    <t>Rsi_Yadnya</t>
+  </si>
+  <si>
+    <t>Sangkep</t>
+  </si>
+  <si>
+    <t>Saron</t>
+  </si>
+  <si>
+    <t>Sejajar</t>
+  </si>
+  <si>
+    <t>SejajarMembelakangi</t>
+  </si>
+  <si>
+    <t>Selendro</t>
+  </si>
+  <si>
+    <t>Semarapura</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Singaraja</t>
+  </si>
+  <si>
+    <t>StruckChordophones</t>
+  </si>
+  <si>
+    <t>StruckIdiophones</t>
+  </si>
+  <si>
+    <t>Suir</t>
+  </si>
+  <si>
+    <t>SuirPengembang</t>
+  </si>
+  <si>
+    <t>SuirPengisep</t>
+  </si>
+  <si>
+    <t>Suling</t>
+  </si>
+  <si>
+    <t>Tabanan</t>
+  </si>
+  <si>
+    <t>TanahLongsor</t>
+  </si>
+  <si>
+    <t>TawaTawa</t>
+  </si>
+  <si>
+    <t>TedunMekarya</t>
+  </si>
+  <si>
+    <t>TedunMesucian</t>
+  </si>
+  <si>
+    <t>Tempo</t>
+  </si>
+  <si>
+    <t>Tilem</t>
+  </si>
+  <si>
+    <t>Trompong</t>
+  </si>
+  <si>
+    <t>TukangKulkul</t>
+  </si>
+  <si>
+    <t>Tulud1</t>
+  </si>
+  <si>
+    <t>Tulud2</t>
+  </si>
+  <si>
+    <t>TuludAlon1</t>
+  </si>
+  <si>
+    <t>TuludAlon2</t>
+  </si>
+  <si>
+    <t>TuludAlon3</t>
+  </si>
+  <si>
+    <t>TuludAlon4</t>
+  </si>
+  <si>
+    <t>TuludBanban1</t>
+  </si>
+  <si>
+    <t>TuludBanban2</t>
+  </si>
+  <si>
+    <t>TuludBanban3</t>
+  </si>
+  <si>
+    <t>TuludBanban4</t>
+  </si>
+  <si>
+    <t>TuludBulus1</t>
+  </si>
+  <si>
+    <t>TuludBulus2</t>
+  </si>
+  <si>
+    <t>TuludBulus3</t>
+  </si>
+  <si>
+    <t>TuludBulus4</t>
+  </si>
+  <si>
+    <t>TuludGancang2</t>
+  </si>
+  <si>
+    <t>TuludNgebekSedeng1</t>
+  </si>
+  <si>
+    <t>TuludNgebekSedeng2</t>
+  </si>
+  <si>
+    <t>TuludNgembakBanban</t>
+  </si>
+  <si>
+    <t>TuludSedeng1</t>
+  </si>
+  <si>
+    <t>TuludSedeng2</t>
+  </si>
+  <si>
+    <t>Ugal</t>
+  </si>
+  <si>
+    <t>UkuranKulkul1</t>
+  </si>
+  <si>
+    <t>UkuranKulkul2</t>
+  </si>
+  <si>
+    <t>UkuranKulkul3</t>
+  </si>
+  <si>
+    <t>UkuranKulkul4</t>
+  </si>
+  <si>
+    <t>UkuranKulkul5</t>
+  </si>
+  <si>
+    <t>UkuranKulkul6</t>
+  </si>
+  <si>
+    <t>UkuranKulkul7</t>
+  </si>
+  <si>
+    <t>UsabaDalem</t>
+  </si>
+  <si>
+    <t>UsabaDesa</t>
+  </si>
+  <si>
+    <t>WabahPenyakit</t>
+  </si>
+  <si>
+    <t>WangdeSangkep</t>
+  </si>
+  <si>
+    <t>WargaMerangkat</t>
   </si>
 </sst>
 </file>
@@ -955,6 +2167,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1015,27 +2248,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,7 +2280,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1368,7 +2579,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1693,7 +2903,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2011,7 +3220,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4972,22 +6180,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="13" t="s">
         <v>186</v>
       </c>
@@ -5003,10 +6211,10 @@
       <c r="G2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="38"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -5032,7 +6240,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="14" t="s">
         <v>194</v>
       </c>
@@ -5056,10 +6264,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="41" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -5081,10 +6289,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="15">
         <v>1</v>
       </c>
@@ -5106,10 +6314,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="26"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="15">
         <v>1</v>
       </c>
@@ -5131,10 +6339,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="15">
         <v>2</v>
       </c>
@@ -5196,10 +6404,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="15">
         <v>2</v>
       </c>
@@ -5220,10 +6428,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="32" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="15">
         <v>0</v>
       </c>
@@ -5244,10 +6452,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="15">
         <v>2</v>
       </c>
@@ -5269,17 +6477,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5305,262 +6513,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="17" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="38" t="s">
+      <c r="D3" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="17" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="17" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="17" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="17" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="17" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="17" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="17" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="17" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="17" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="17" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="17" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5691,668 +6899,668 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="16.7109375" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="20" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="21" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+    <row r="32" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+    <row r="34" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+    <row r="35" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="37" t="s">
+      <c r="C35" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+    <row r="36" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+    <row r="37" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+    <row r="38" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+    <row r="39" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="37" t="s">
+      <c r="C41" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+    <row r="42" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B42" s="37" t="s">
+      <c r="B42" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B44" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+    <row r="45" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+    <row r="46" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+    <row r="47" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+    <row r="48" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+    <row r="49" spans="1:3" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+    <row r="50" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C50" s="37" t="s">
+      <c r="C50" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+    <row r="51" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C51" s="37" t="s">
+      <c r="C51" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+    <row r="52" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="C52" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+    <row r="53" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="C53" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+    <row r="54" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+    <row r="55" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+    <row r="56" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+    <row r="57" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+    <row r="58" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+    <row r="59" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+    <row r="60" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="17" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6363,358 +7571,3566 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:G408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="42" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="42"/>
+    <col min="1" max="1" width="5.5703125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="22" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="22"/>
+    <col min="5" max="5" width="9.140625" style="19"/>
+    <col min="6" max="6" width="33.28515625" style="22" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="E1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
+      <c r="E2" s="19">
+        <v>1</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="E3" s="19">
+        <v>2</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="E5" s="19">
+        <v>4</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="E6" s="19">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="E7" s="19">
+        <v>6</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="E8" s="19">
+        <v>7</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="E9" s="19">
+        <v>8</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="E11" s="19">
+        <v>10</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="E12" s="19">
+        <v>11</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="E13" s="19">
+        <v>12</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="E14" s="19">
+        <v>13</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="E15" s="19">
+        <v>14</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="E16" s="19">
+        <v>15</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="E17" s="19">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="E18" s="19">
+        <v>17</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="E19" s="19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="E20" s="19">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="E21" s="19">
+        <v>20</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="E22" s="19">
+        <v>21</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="E23" s="19">
+        <v>22</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="E24" s="19">
+        <v>23</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="E25" s="19">
+        <v>24</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="E26" s="19">
+        <v>25</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="E27" s="19">
+        <v>26</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="E28" s="19">
+        <v>27</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29" s="37" t="s">
+      <c r="B29" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="E29" s="19">
+        <v>28</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="E30" s="19">
+        <v>29</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E31" s="19">
+        <v>30</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="19">
+        <v>31</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="19">
+        <v>32</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="19">
+        <v>33</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="19">
+        <v>34</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="19">
+        <v>35</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="19">
+        <v>36</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="19">
+        <v>37</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="19">
+        <v>38</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="19">
+        <v>39</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="19">
+        <v>40</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="19">
+        <v>41</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="19">
+        <v>42</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="19">
+        <v>43</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="19">
+        <v>44</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="19">
+        <v>45</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="19">
+        <v>46</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="19">
+        <v>47</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="19">
+        <v>48</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="19">
+        <v>49</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="19">
+        <v>50</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="19">
+        <v>51</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="19">
+        <v>52</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="19">
+        <v>53</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="19">
+        <v>54</v>
+      </c>
+      <c r="F55" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="19">
+        <v>55</v>
+      </c>
+      <c r="F56" s="22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="19">
+        <v>56</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="19">
+        <v>57</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="19">
+        <v>58</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="19">
+        <v>59</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="19">
+        <v>60</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="19">
+        <v>61</v>
+      </c>
+      <c r="F62" s="22" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="19">
+        <v>62</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="19">
+        <v>63</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="19">
+        <v>64</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="19">
+        <v>65</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="19">
+        <v>66</v>
+      </c>
+      <c r="F67" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="19">
+        <v>67</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="19">
+        <v>68</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="19">
+        <v>69</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="19">
+        <v>70</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="19">
+        <v>71</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="19">
+        <v>72</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="19">
+        <v>73</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="19">
+        <v>74</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="19">
+        <v>75</v>
+      </c>
+      <c r="F76" s="22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="19">
+        <v>76</v>
+      </c>
+      <c r="F77" s="22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="19">
+        <v>77</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="19">
+        <v>78</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="19">
+        <v>79</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="19">
+        <v>80</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="19">
+        <v>81</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="19">
+        <v>82</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="19">
+        <v>83</v>
+      </c>
+      <c r="F84" s="22" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="19">
+        <v>84</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="19">
+        <v>85</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="19">
+        <v>86</v>
+      </c>
+      <c r="F87" s="22" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="19">
+        <v>87</v>
+      </c>
+      <c r="F88" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="19">
+        <v>88</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="19">
+        <v>89</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="19">
+        <v>90</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="19">
+        <v>91</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="19">
+        <v>92</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="19">
+        <v>93</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="19">
+        <v>94</v>
+      </c>
+      <c r="F95" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="19">
+        <v>95</v>
+      </c>
+      <c r="F96" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="19">
+        <v>96</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="19">
+        <v>97</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="19">
+        <v>98</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="19">
+        <v>99</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="19">
+        <v>100</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="19">
+        <v>101</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="19">
+        <v>102</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="19">
+        <v>103</v>
+      </c>
+      <c r="F104" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="19">
+        <v>104</v>
+      </c>
+      <c r="F105" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="19">
+        <v>105</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="19">
+        <v>106</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="19">
+        <v>107</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="19">
+        <v>108</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="19">
+        <v>109</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="19">
+        <v>110</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="19">
+        <v>111</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="19">
+        <v>112</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="19">
+        <v>113</v>
+      </c>
+      <c r="F114" s="22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="19">
+        <v>114</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="19">
+        <v>115</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E117" s="19">
+        <v>116</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E118" s="19">
+        <v>117</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E119" s="19">
+        <v>118</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="19">
+        <v>119</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E121" s="19">
+        <v>120</v>
+      </c>
+      <c r="F121" s="22" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E122" s="19">
+        <v>121</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="19">
+        <v>122</v>
+      </c>
+      <c r="F123" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E124" s="19">
+        <v>123</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E125" s="19">
+        <v>124</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E126" s="19">
+        <v>125</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="19">
+        <v>126</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E128" s="19">
+        <v>127</v>
+      </c>
+      <c r="F128" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E129" s="19">
+        <v>128</v>
+      </c>
+      <c r="F129" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E130" s="19">
+        <v>129</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E131" s="19">
+        <v>130</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="19">
+        <v>131</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="19">
+        <v>132</v>
+      </c>
+      <c r="F133" s="22" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E134" s="19">
+        <v>133</v>
+      </c>
+      <c r="F134" s="22" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E135" s="19">
+        <v>134</v>
+      </c>
+      <c r="F135" s="22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E136" s="19">
+        <v>135</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E137" s="19">
+        <v>136</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E138" s="19">
+        <v>137</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E139" s="19">
+        <v>138</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E140" s="19">
+        <v>139</v>
+      </c>
+      <c r="F140" s="22" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E141" s="19">
+        <v>140</v>
+      </c>
+      <c r="F141" s="22" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="19">
+        <v>141</v>
+      </c>
+      <c r="F142" s="22" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="19">
+        <v>142</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E144" s="19">
+        <v>143</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E145" s="19">
+        <v>144</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E146" s="19">
+        <v>145</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E147" s="19">
+        <v>146</v>
+      </c>
+      <c r="F147" s="22" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E148" s="19">
+        <v>147</v>
+      </c>
+      <c r="F148" s="22" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E149" s="19">
+        <v>148</v>
+      </c>
+      <c r="F149" s="22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E150" s="19">
+        <v>149</v>
+      </c>
+      <c r="F150" s="22" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="19">
+        <v>150</v>
+      </c>
+      <c r="F151" s="22" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E152" s="19">
+        <v>151</v>
+      </c>
+      <c r="F152" s="22" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E153" s="19">
+        <v>152</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E154" s="19">
+        <v>153</v>
+      </c>
+      <c r="F154" s="22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="19">
+        <v>154</v>
+      </c>
+      <c r="F155" s="22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E156" s="19">
+        <v>155</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E157" s="19">
+        <v>156</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E158" s="19">
+        <v>157</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="19">
+        <v>158</v>
+      </c>
+      <c r="F159" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E160" s="19">
+        <v>159</v>
+      </c>
+      <c r="F160" s="22" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E161" s="19">
+        <v>160</v>
+      </c>
+      <c r="F161" s="22" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E162" s="19">
+        <v>161</v>
+      </c>
+      <c r="F162" s="22" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E163" s="19">
+        <v>162</v>
+      </c>
+      <c r="F163" s="22" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E164" s="19">
+        <v>163</v>
+      </c>
+      <c r="F164" s="22" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E165" s="19">
+        <v>164</v>
+      </c>
+      <c r="F165" s="22" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E166" s="19">
+        <v>165</v>
+      </c>
+      <c r="F166" s="22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E167" s="19">
+        <v>166</v>
+      </c>
+      <c r="F167" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E168" s="19">
+        <v>167</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E169" s="19">
+        <v>168</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="19">
+        <v>169</v>
+      </c>
+      <c r="F170" s="22" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E171" s="19">
+        <v>170</v>
+      </c>
+      <c r="F171" s="22" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E172" s="19">
+        <v>171</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E173" s="19">
+        <v>172</v>
+      </c>
+      <c r="F173" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E174" s="19">
+        <v>173</v>
+      </c>
+      <c r="F174" s="22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E175" s="19">
+        <v>174</v>
+      </c>
+      <c r="F175" s="22" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E176" s="19">
+        <v>175</v>
+      </c>
+      <c r="F176" s="22" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E177" s="19">
+        <v>176</v>
+      </c>
+      <c r="F177" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E178" s="19">
+        <v>177</v>
+      </c>
+      <c r="F178" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E179" s="19">
+        <v>178</v>
+      </c>
+      <c r="F179" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E180" s="19">
+        <v>179</v>
+      </c>
+      <c r="F180" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E181" s="19">
+        <v>180</v>
+      </c>
+      <c r="F181" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E182" s="19">
+        <v>181</v>
+      </c>
+      <c r="F182" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E183" s="19">
+        <v>182</v>
+      </c>
+      <c r="F183" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E184" s="19">
+        <v>183</v>
+      </c>
+      <c r="F184" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E185" s="19">
+        <v>184</v>
+      </c>
+      <c r="F185" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E186" s="19">
+        <v>185</v>
+      </c>
+      <c r="F186" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E187" s="19">
+        <v>186</v>
+      </c>
+      <c r="F187" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E188" s="19">
+        <v>187</v>
+      </c>
+      <c r="F188" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E189" s="19">
+        <v>188</v>
+      </c>
+      <c r="F189" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E190" s="19">
+        <v>189</v>
+      </c>
+      <c r="F190" s="22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E191" s="19">
+        <v>190</v>
+      </c>
+      <c r="F191" s="22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E192" s="19">
+        <v>191</v>
+      </c>
+      <c r="F192" s="22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E193" s="19">
+        <v>192</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E194" s="19">
+        <v>193</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E195" s="19">
+        <v>194</v>
+      </c>
+      <c r="F195" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E196" s="19">
+        <v>195</v>
+      </c>
+      <c r="F196" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E197" s="19">
+        <v>196</v>
+      </c>
+      <c r="F197" s="22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E198" s="19">
+        <v>197</v>
+      </c>
+      <c r="F198" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E199" s="19">
+        <v>198</v>
+      </c>
+      <c r="F199" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E200" s="19">
+        <v>199</v>
+      </c>
+      <c r="F200" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E201" s="19">
+        <v>200</v>
+      </c>
+      <c r="F201" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E202" s="19">
+        <v>201</v>
+      </c>
+      <c r="F202" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E203" s="19">
+        <v>202</v>
+      </c>
+      <c r="F203" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E204" s="19">
+        <v>203</v>
+      </c>
+      <c r="F204" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E205" s="19">
+        <v>204</v>
+      </c>
+      <c r="F205" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E206" s="19">
+        <v>205</v>
+      </c>
+      <c r="F206" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E207" s="19">
+        <v>206</v>
+      </c>
+      <c r="F207" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E208" s="19">
+        <v>207</v>
+      </c>
+      <c r="F208" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E209" s="19">
+        <v>208</v>
+      </c>
+      <c r="F209" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E210" s="19">
+        <v>209</v>
+      </c>
+      <c r="F210" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E211" s="19">
+        <v>210</v>
+      </c>
+      <c r="F211" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E212" s="19">
+        <v>211</v>
+      </c>
+      <c r="F212" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E213" s="19">
+        <v>212</v>
+      </c>
+      <c r="F213" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E214" s="19">
+        <v>213</v>
+      </c>
+      <c r="F214" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E215" s="19">
+        <v>214</v>
+      </c>
+      <c r="F215" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E216" s="19">
+        <v>215</v>
+      </c>
+      <c r="F216" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E217" s="19">
+        <v>216</v>
+      </c>
+      <c r="F217" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E218" s="19">
+        <v>217</v>
+      </c>
+      <c r="F218" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E219" s="19">
+        <v>218</v>
+      </c>
+      <c r="F219" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E220" s="19">
+        <v>219</v>
+      </c>
+      <c r="F220" s="22" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E221" s="19">
+        <v>220</v>
+      </c>
+      <c r="F221" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E222" s="19">
+        <v>221</v>
+      </c>
+      <c r="F222" s="22" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E223" s="19">
+        <v>222</v>
+      </c>
+      <c r="F223" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E224" s="19">
+        <v>223</v>
+      </c>
+      <c r="F224" s="22" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E225" s="19">
+        <v>224</v>
+      </c>
+      <c r="F225" s="22" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E226" s="19">
+        <v>225</v>
+      </c>
+      <c r="F226" s="22" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E227" s="19">
+        <v>226</v>
+      </c>
+      <c r="F227" s="22" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E228" s="19">
+        <v>227</v>
+      </c>
+      <c r="F228" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E229" s="19">
+        <v>228</v>
+      </c>
+      <c r="F229" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E230" s="19">
+        <v>229</v>
+      </c>
+      <c r="F230" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E231" s="19">
+        <v>230</v>
+      </c>
+      <c r="F231" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E232" s="19">
+        <v>231</v>
+      </c>
+      <c r="F232" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E233" s="19">
+        <v>232</v>
+      </c>
+      <c r="F233" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E234" s="19">
+        <v>233</v>
+      </c>
+      <c r="F234" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E235" s="19">
+        <v>234</v>
+      </c>
+      <c r="F235" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E236" s="19">
+        <v>235</v>
+      </c>
+      <c r="F236" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E237" s="19">
+        <v>236</v>
+      </c>
+      <c r="F237" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E238" s="19">
+        <v>237</v>
+      </c>
+      <c r="F238" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E239" s="19">
+        <v>238</v>
+      </c>
+      <c r="F239" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E240" s="19">
+        <v>239</v>
+      </c>
+      <c r="F240" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E241" s="19">
+        <v>240</v>
+      </c>
+      <c r="F241" s="22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E242" s="19">
+        <v>241</v>
+      </c>
+      <c r="F242" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E243" s="19">
+        <v>242</v>
+      </c>
+      <c r="F243" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E244" s="19">
+        <v>243</v>
+      </c>
+      <c r="F244" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E245" s="19">
+        <v>244</v>
+      </c>
+      <c r="F245" s="22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E246" s="19">
+        <v>245</v>
+      </c>
+      <c r="F246" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E247" s="19">
+        <v>246</v>
+      </c>
+      <c r="F247" s="22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E248" s="19">
+        <v>247</v>
+      </c>
+      <c r="F248" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E249" s="19">
+        <v>248</v>
+      </c>
+      <c r="F249" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E250" s="19">
+        <v>249</v>
+      </c>
+      <c r="F250" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E251" s="19">
+        <v>250</v>
+      </c>
+      <c r="F251" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E252" s="19">
+        <v>251</v>
+      </c>
+      <c r="F252" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E253" s="19">
+        <v>252</v>
+      </c>
+      <c r="F253" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E254" s="19">
+        <v>253</v>
+      </c>
+      <c r="F254" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E255" s="19">
+        <v>254</v>
+      </c>
+      <c r="F255" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E256" s="19">
+        <v>255</v>
+      </c>
+      <c r="F256" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E257" s="19">
+        <v>256</v>
+      </c>
+      <c r="F257" s="22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E258" s="19">
+        <v>257</v>
+      </c>
+      <c r="F258" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E259" s="19">
+        <v>258</v>
+      </c>
+      <c r="F259" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E260" s="19">
+        <v>259</v>
+      </c>
+      <c r="F260" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E261" s="19">
+        <v>260</v>
+      </c>
+      <c r="F261" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E262" s="19">
+        <v>261</v>
+      </c>
+      <c r="F262" s="22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E263" s="19">
+        <v>262</v>
+      </c>
+      <c r="F263" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E264" s="19">
+        <v>263</v>
+      </c>
+      <c r="F264" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="265" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E265" s="19">
+        <v>264</v>
+      </c>
+      <c r="F265" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="266" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E266" s="19">
+        <v>265</v>
+      </c>
+      <c r="F266" s="22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="267" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E267" s="19">
+        <v>266</v>
+      </c>
+      <c r="F267" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E268" s="19">
+        <v>267</v>
+      </c>
+      <c r="F268" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E269" s="19">
+        <v>268</v>
+      </c>
+      <c r="F269" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E270" s="19">
+        <v>269</v>
+      </c>
+      <c r="F270" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E271" s="19">
+        <v>270</v>
+      </c>
+      <c r="F271" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E272" s="19">
+        <v>271</v>
+      </c>
+      <c r="F272" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E273" s="19">
+        <v>272</v>
+      </c>
+      <c r="F273" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E274" s="19">
+        <v>273</v>
+      </c>
+      <c r="F274" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E275" s="19">
+        <v>274</v>
+      </c>
+      <c r="F275" s="22" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E276" s="19">
+        <v>275</v>
+      </c>
+      <c r="F276" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E277" s="19">
+        <v>276</v>
+      </c>
+      <c r="F277" s="22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E278" s="19">
+        <v>277</v>
+      </c>
+      <c r="F278" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E279" s="19">
+        <v>278</v>
+      </c>
+      <c r="F279" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E280" s="19">
+        <v>279</v>
+      </c>
+      <c r="F280" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E281" s="19">
+        <v>280</v>
+      </c>
+      <c r="F281" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E282" s="19">
+        <v>281</v>
+      </c>
+      <c r="F282" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E283" s="19">
+        <v>282</v>
+      </c>
+      <c r="F283" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E284" s="19">
+        <v>283</v>
+      </c>
+      <c r="F284" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E285" s="19">
+        <v>284</v>
+      </c>
+      <c r="F285" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E286" s="19">
+        <v>285</v>
+      </c>
+      <c r="F286" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E287" s="19">
+        <v>286</v>
+      </c>
+      <c r="F287" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E288" s="19">
+        <v>287</v>
+      </c>
+      <c r="F288" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E289" s="19">
+        <v>288</v>
+      </c>
+      <c r="F289" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E290" s="19">
+        <v>289</v>
+      </c>
+      <c r="F290" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E291" s="19">
+        <v>290</v>
+      </c>
+      <c r="F291" s="22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E292" s="19">
+        <v>291</v>
+      </c>
+      <c r="F292" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E293" s="19">
+        <v>292</v>
+      </c>
+      <c r="F293" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E294" s="19">
+        <v>293</v>
+      </c>
+      <c r="F294" s="22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E295" s="19">
+        <v>294</v>
+      </c>
+      <c r="F295" s="22" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E296" s="19">
+        <v>295</v>
+      </c>
+      <c r="F296" s="22" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E297" s="19">
+        <v>296</v>
+      </c>
+      <c r="F297" s="22" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E298" s="19">
+        <v>297</v>
+      </c>
+      <c r="F298" s="22" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E299" s="19">
+        <v>298</v>
+      </c>
+      <c r="F299" s="22" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E300" s="19">
+        <v>299</v>
+      </c>
+      <c r="F300" s="22" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E301" s="19">
+        <v>300</v>
+      </c>
+      <c r="F301" s="22" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E302" s="19">
+        <v>301</v>
+      </c>
+      <c r="F302" s="22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E303" s="19">
+        <v>302</v>
+      </c>
+      <c r="F303" s="22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E304" s="19">
+        <v>303</v>
+      </c>
+      <c r="F304" s="22" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E305" s="19">
+        <v>304</v>
+      </c>
+      <c r="F305" s="22" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E306" s="19">
+        <v>305</v>
+      </c>
+      <c r="F306" s="22" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E307" s="19">
+        <v>306</v>
+      </c>
+      <c r="F307" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E308" s="19">
+        <v>307</v>
+      </c>
+      <c r="F308" s="22" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E309" s="19">
+        <v>308</v>
+      </c>
+      <c r="F309" s="22" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E310" s="19">
+        <v>309</v>
+      </c>
+      <c r="F310" s="22" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E311" s="19">
+        <v>310</v>
+      </c>
+      <c r="F311" s="22" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E312" s="19">
+        <v>311</v>
+      </c>
+      <c r="F312" s="22" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E313" s="19">
+        <v>312</v>
+      </c>
+      <c r="F313" s="22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E314" s="19">
+        <v>313</v>
+      </c>
+      <c r="F314" s="22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E315" s="19">
+        <v>314</v>
+      </c>
+      <c r="F315" s="22" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E316" s="19">
+        <v>315</v>
+      </c>
+      <c r="F316" s="22" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E317" s="19">
+        <v>316</v>
+      </c>
+      <c r="F317" s="22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E318" s="19">
+        <v>317</v>
+      </c>
+      <c r="F318" s="22" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E319" s="19">
+        <v>318</v>
+      </c>
+      <c r="F319" s="22" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E320" s="19">
+        <v>319</v>
+      </c>
+      <c r="F320" s="22" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E321" s="19">
+        <v>320</v>
+      </c>
+      <c r="F321" s="22" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E322" s="19">
+        <v>321</v>
+      </c>
+      <c r="F322" s="22" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E323" s="19">
+        <v>322</v>
+      </c>
+      <c r="F323" s="22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E324" s="19">
+        <v>323</v>
+      </c>
+      <c r="F324" s="22" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E325" s="19">
+        <v>324</v>
+      </c>
+      <c r="F325" s="22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E326" s="19">
+        <v>325</v>
+      </c>
+      <c r="F326" s="22" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="327" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E327" s="19">
+        <v>326</v>
+      </c>
+      <c r="F327" s="22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E328" s="19">
+        <v>327</v>
+      </c>
+      <c r="F328" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E329" s="19">
+        <v>328</v>
+      </c>
+      <c r="F329" s="22" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E330" s="19">
+        <v>329</v>
+      </c>
+      <c r="F330" s="22" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E331" s="19">
+        <v>330</v>
+      </c>
+      <c r="F331" s="22" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E332" s="19">
+        <v>331</v>
+      </c>
+      <c r="F332" s="22" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E333" s="19">
+        <v>332</v>
+      </c>
+      <c r="F333" s="22" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E334" s="19">
+        <v>333</v>
+      </c>
+      <c r="F334" s="22" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E335" s="19">
+        <v>334</v>
+      </c>
+      <c r="F335" s="22" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E336" s="19">
+        <v>335</v>
+      </c>
+      <c r="F336" s="22" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E337" s="19">
+        <v>336</v>
+      </c>
+      <c r="F337" s="22" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E338" s="19">
+        <v>337</v>
+      </c>
+      <c r="F338" s="22" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E339" s="19">
+        <v>338</v>
+      </c>
+      <c r="F339" s="22" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E340" s="19">
+        <v>339</v>
+      </c>
+      <c r="F340" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="341" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E341" s="19">
+        <v>340</v>
+      </c>
+      <c r="F341" s="22" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="342" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E342" s="19">
+        <v>341</v>
+      </c>
+      <c r="F342" s="22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="343" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E343" s="19">
+        <v>342</v>
+      </c>
+      <c r="F343" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E344" s="19">
+        <v>343</v>
+      </c>
+      <c r="F344" s="22" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="345" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E345" s="19">
+        <v>344</v>
+      </c>
+      <c r="F345" s="22" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="346" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E346" s="19">
+        <v>345</v>
+      </c>
+      <c r="F346" s="22" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="347" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E347" s="19">
+        <v>346</v>
+      </c>
+      <c r="F347" s="22" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="348" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E348" s="19">
+        <v>347</v>
+      </c>
+      <c r="F348" s="22" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="349" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E349" s="19">
+        <v>348</v>
+      </c>
+      <c r="F349" s="22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E350" s="19">
+        <v>349</v>
+      </c>
+      <c r="F350" s="22" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="351" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E351" s="19">
+        <v>350</v>
+      </c>
+      <c r="F351" s="22" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="352" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E352" s="19">
+        <v>351</v>
+      </c>
+      <c r="F352" s="22" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E353" s="19">
+        <v>352</v>
+      </c>
+      <c r="F353" s="22" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E354" s="19">
+        <v>353</v>
+      </c>
+      <c r="F354" s="22" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E355" s="19">
+        <v>354</v>
+      </c>
+      <c r="F355" s="22" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E356" s="19">
+        <v>355</v>
+      </c>
+      <c r="F356" s="22" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E357" s="19">
+        <v>356</v>
+      </c>
+      <c r="F357" s="22" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E358" s="19">
+        <v>357</v>
+      </c>
+      <c r="F358" s="22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E359" s="19">
+        <v>358</v>
+      </c>
+      <c r="F359" s="22" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E360" s="19">
+        <v>359</v>
+      </c>
+      <c r="F360" s="22" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E361" s="19">
+        <v>360</v>
+      </c>
+      <c r="F361" s="22" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E362" s="19">
+        <v>361</v>
+      </c>
+      <c r="F362" s="22" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E363" s="19">
+        <v>362</v>
+      </c>
+      <c r="F363" s="22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E364" s="19">
+        <v>363</v>
+      </c>
+      <c r="F364" s="22" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E365" s="19">
+        <v>364</v>
+      </c>
+      <c r="F365" s="22" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E366" s="19">
+        <v>365</v>
+      </c>
+      <c r="F366" s="22" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E367" s="19">
+        <v>366</v>
+      </c>
+      <c r="F367" s="22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E368" s="19">
+        <v>367</v>
+      </c>
+      <c r="F368" s="22" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E369" s="19">
+        <v>368</v>
+      </c>
+      <c r="F369" s="22" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E370" s="19">
+        <v>369</v>
+      </c>
+      <c r="F370" s="22" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E371" s="19">
+        <v>370</v>
+      </c>
+      <c r="F371" s="22" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E372" s="19">
+        <v>371</v>
+      </c>
+      <c r="F372" s="22" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E373" s="19">
+        <v>372</v>
+      </c>
+      <c r="F373" s="22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E374" s="19">
+        <v>373</v>
+      </c>
+      <c r="F374" s="22" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E375" s="19">
+        <v>374</v>
+      </c>
+      <c r="F375" s="22" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E376" s="19">
+        <v>375</v>
+      </c>
+      <c r="F376" s="22" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E377" s="19">
+        <v>376</v>
+      </c>
+      <c r="F377" s="22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E378" s="19">
+        <v>377</v>
+      </c>
+      <c r="F378" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E379" s="19">
+        <v>378</v>
+      </c>
+      <c r="F379" s="22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E380" s="19">
+        <v>379</v>
+      </c>
+      <c r="F380" s="22" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E381" s="19">
+        <v>380</v>
+      </c>
+      <c r="F381" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E382" s="19">
+        <v>381</v>
+      </c>
+      <c r="F382" s="22" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E383" s="19">
+        <v>382</v>
+      </c>
+      <c r="F383" s="22" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E384" s="19">
+        <v>383</v>
+      </c>
+      <c r="F384" s="22" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E385" s="19">
+        <v>384</v>
+      </c>
+      <c r="F385" s="22" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E386" s="19">
+        <v>385</v>
+      </c>
+      <c r="F386" s="22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E387" s="19">
+        <v>386</v>
+      </c>
+      <c r="F387" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E388" s="19">
+        <v>387</v>
+      </c>
+      <c r="F388" s="22" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E389" s="19">
+        <v>388</v>
+      </c>
+      <c r="F389" s="22" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E390" s="19">
+        <v>389</v>
+      </c>
+      <c r="F390" s="22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E391" s="19">
+        <v>390</v>
+      </c>
+      <c r="F391" s="22" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E392" s="19">
+        <v>391</v>
+      </c>
+      <c r="F392" s="22" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E393" s="19">
+        <v>392</v>
+      </c>
+      <c r="F393" s="22" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E394" s="19">
+        <v>393</v>
+      </c>
+      <c r="F394" s="22" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E395" s="19">
+        <v>394</v>
+      </c>
+      <c r="F395" s="22" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E396" s="19">
+        <v>395</v>
+      </c>
+      <c r="F396" s="22" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E397" s="19">
+        <v>396</v>
+      </c>
+      <c r="F397" s="22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E398" s="19">
+        <v>397</v>
+      </c>
+      <c r="F398" s="22" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E399" s="19">
+        <v>398</v>
+      </c>
+      <c r="F399" s="22" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E400" s="19">
+        <v>399</v>
+      </c>
+      <c r="F400" s="22" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E401" s="19">
+        <v>400</v>
+      </c>
+      <c r="F401" s="22" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E402" s="19">
+        <v>401</v>
+      </c>
+      <c r="F402" s="22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E403" s="19">
+        <v>402</v>
+      </c>
+      <c r="F403" s="22" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E404" s="19">
+        <v>403</v>
+      </c>
+      <c r="F404" s="22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E405" s="19">
+        <v>404</v>
+      </c>
+      <c r="F405" s="22" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E406" s="19">
+        <v>405</v>
+      </c>
+      <c r="F406" s="22" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E407" s="19">
+        <v>406</v>
+      </c>
+      <c r="F407" s="22" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E408" s="19">
+        <v>407</v>
+      </c>
+      <c r="F408" s="22" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -6738,13 +11154,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -6764,20 +11180,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -6798,7 +11214,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -6824,7 +11240,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -6848,10 +11264,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="9">
         <v>6.35</v>
       </c>
@@ -6872,10 +11288,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="9">
         <v>6</v>
       </c>
@@ -6896,10 +11312,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
@@ -6920,10 +11336,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
@@ -6964,10 +11380,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="9">
         <v>6.35</v>
       </c>
@@ -6988,10 +11404,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="9">
         <v>6</v>
       </c>
@@ -7012,10 +11428,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -7036,10 +11452,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="9">
         <v>7</v>
       </c>
@@ -7061,17 +11477,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7089,23 +11505,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -7124,10 +11540,10 @@
       <c r="H2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="I2" s="31"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7156,7 +11572,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -7183,10 +11599,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="10">
         <v>6.05</v>
       </c>
@@ -7210,10 +11626,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10">
         <v>6</v>
       </c>
@@ -7237,10 +11653,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10">
         <v>4</v>
       </c>
@@ -7264,10 +11680,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="10">
         <v>7</v>
       </c>
@@ -7311,10 +11727,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="10">
         <v>6.05</v>
       </c>
@@ -7335,10 +11751,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10">
         <v>6</v>
       </c>
@@ -7359,10 +11775,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="10">
         <v>4</v>
       </c>
@@ -7383,10 +11799,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10">
         <v>7</v>
       </c>
@@ -7437,22 +11853,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -7468,10 +11884,10 @@
       <c r="G2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="28" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -7497,7 +11913,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -7521,10 +11937,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="10">
         <v>1.9</v>
       </c>
@@ -7546,10 +11962,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -7571,10 +11987,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="10">
         <v>0</v>
       </c>
@@ -7596,10 +12012,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="10">
         <v>2</v>
       </c>
@@ -7658,10 +12074,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -7679,10 +12095,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="10">
         <v>0</v>
       </c>
@@ -7700,10 +12116,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="23" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -7722,17 +12138,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="621">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -1893,6 +1893,9 @@
   </si>
   <si>
     <t>WargaMerangkat</t>
+  </si>
+  <si>
+    <t>Link</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2248,6 +2251,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2280,6 +2289,43 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Rata-Rata Hasil Evaluasi Persepsi Kegunaan</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2300,7 +2346,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -2342,25 +2388,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet6!$B$10:$H$10</c:f>
+              <c:f>Sheet6!$C$10:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>P1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>P2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>P3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>P4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>P5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>P6</c:v>
                 </c:pt>
               </c:strCache>
@@ -2368,26 +2414,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet6!$B$11:$H$11</c:f>
+              <c:f>Sheet6!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>6.35</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>6.1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>6.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>6.15</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>6.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2448,7 +2494,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2507,7 +2553,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2551,7 +2597,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="id-ID"/>
     </a:p>
@@ -2579,6 +2627,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
+              </a:rPr>
+              <a:t>Rata-Rata Hasil Evaluasi Persepsi Kemudahan Penggunaan</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2599,7 +2675,7 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Gilroy Bold" panose="00000800000000000000" pitchFamily="50" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
@@ -2641,25 +2717,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet7!$B$10:$H$10</c:f>
+              <c:f>Sheet7!$C$10:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>P1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>P2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>P3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>P4</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>P5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>P6</c:v>
                 </c:pt>
               </c:strCache>
@@ -2667,26 +2743,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet7!$B$11:$H$11</c:f>
+              <c:f>Sheet7!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="1">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
                   <c:v>6.05</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="1">
                   <c:v>5.95</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>6.3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="3">
                   <c:v>6.2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="4">
                   <c:v>6.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -2747,7 +2823,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
@@ -2806,7 +2882,7 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
@@ -2851,7 +2927,7 @@
     <a:p>
       <a:pPr>
         <a:defRPr>
-          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
@@ -2903,6 +2979,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3220,6 +3297,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6477,17 +6555,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6498,9 +6576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:F13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7571,23 +7647,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G408"/>
+  <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="22" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="22"/>
-    <col min="5" max="5" width="9.140625" style="19"/>
-    <col min="6" max="6" width="33.28515625" style="22" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="5" width="9.140625" style="22"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="33.28515625" style="22" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>214</v>
       </c>
@@ -7597,17 +7673,20 @@
       <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>1</v>
       </c>
@@ -7617,14 +7696,15 @@
       <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19">
+      <c r="D2" s="44"/>
+      <c r="F2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2</v>
       </c>
@@ -7634,14 +7714,15 @@
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19">
+      <c r="D3" s="44"/>
+      <c r="F3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="22" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -7651,14 +7732,15 @@
       <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="19">
+      <c r="D4" s="44"/>
+      <c r="F4" s="19">
         <v>3</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="G4" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -7668,14 +7750,15 @@
       <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="19">
+      <c r="D5" s="44"/>
+      <c r="F5" s="19">
         <v>4</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="G5" s="22" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -7685,14 +7768,15 @@
       <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="19">
+      <c r="D6" s="44"/>
+      <c r="F6" s="19">
         <v>5</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="G6" s="22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -7702,14 +7786,15 @@
       <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="19">
+      <c r="D7" s="44"/>
+      <c r="F7" s="19">
         <v>6</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="G7" s="22" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -7719,14 +7804,15 @@
       <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="D8" s="44"/>
+      <c r="F8" s="19">
         <v>7</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="G8" s="22" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -7736,14 +7822,15 @@
       <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="19">
+      <c r="D9" s="44"/>
+      <c r="F9" s="19">
         <v>8</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="G9" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>9</v>
       </c>
@@ -7753,14 +7840,15 @@
       <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="19">
+      <c r="D10" s="44"/>
+      <c r="F10" s="19">
         <v>9</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -7770,14 +7858,15 @@
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="19">
+      <c r="D11" s="44"/>
+      <c r="F11" s="19">
         <v>10</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="G11" s="22" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -7787,14 +7876,15 @@
       <c r="C12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="19">
+      <c r="D12" s="44"/>
+      <c r="F12" s="19">
         <v>11</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="G12" s="22" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -7804,14 +7894,15 @@
       <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="19">
+      <c r="D13" s="44"/>
+      <c r="F13" s="19">
         <v>12</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="G13" s="22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -7821,14 +7912,15 @@
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="19">
+      <c r="D14" s="44"/>
+      <c r="F14" s="19">
         <v>13</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="G14" s="22" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -7838,14 +7930,15 @@
       <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="19">
+      <c r="D15" s="44"/>
+      <c r="F15" s="19">
         <v>14</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -7855,14 +7948,15 @@
       <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="19">
+      <c r="D16" s="44"/>
+      <c r="F16" s="19">
         <v>15</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="G16" s="22" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -7872,14 +7966,15 @@
       <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="19">
+      <c r="D17" s="44"/>
+      <c r="F17" s="19">
         <v>16</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="G17" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -7889,14 +7984,15 @@
       <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="19">
+      <c r="D18" s="44"/>
+      <c r="F18" s="19">
         <v>17</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="G18" s="22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>18</v>
       </c>
@@ -7906,14 +8002,15 @@
       <c r="C19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="D19" s="44"/>
+      <c r="F19" s="19">
         <v>18</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="G19" s="22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -7923,14 +8020,15 @@
       <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="19">
+      <c r="D20" s="44"/>
+      <c r="F20" s="19">
         <v>19</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -7940,14 +8038,15 @@
       <c r="C21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="19">
+      <c r="D21" s="44"/>
+      <c r="F21" s="19">
         <v>20</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="G21" s="22" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -7957,14 +8056,15 @@
       <c r="C22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="19">
+      <c r="D22" s="44"/>
+      <c r="F22" s="19">
         <v>21</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="G22" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -7974,14 +8074,15 @@
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="19">
+      <c r="D23" s="44"/>
+      <c r="F23" s="19">
         <v>22</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="22" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -7991,14 +8092,15 @@
       <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="19">
+      <c r="D24" s="44"/>
+      <c r="F24" s="19">
         <v>23</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -8008,14 +8110,15 @@
       <c r="C25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="19">
+      <c r="D25" s="44"/>
+      <c r="F25" s="19">
         <v>24</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -8025,14 +8128,15 @@
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="19">
+      <c r="D26" s="44"/>
+      <c r="F26" s="19">
         <v>25</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -8042,14 +8146,15 @@
       <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="D27" s="44"/>
+      <c r="F27" s="19">
         <v>26</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="G27" s="22" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -8059,14 +8164,15 @@
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="19">
+      <c r="D28" s="44"/>
+      <c r="F28" s="19">
         <v>27</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="G28" s="22" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>28</v>
       </c>
@@ -8076,14 +8182,15 @@
       <c r="C29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="19">
+      <c r="D29" s="44"/>
+      <c r="F29" s="19">
         <v>28</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="G29" s="22" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -8093,14 +8200,15 @@
       <c r="C30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E30" s="19">
+      <c r="D30" s="44"/>
+      <c r="F30" s="19">
         <v>29</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="G30" s="22" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -8110,3026 +8218,3027 @@
       <c r="C31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="19">
+      <c r="D31" s="44"/>
+      <c r="F31" s="19">
         <v>30</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="G31" s="22" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="19">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="19">
         <v>31</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="G32" s="22" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="19">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="19">
         <v>32</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="G33" s="22" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="19">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="19">
         <v>33</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="19">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="19">
         <v>34</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="G35" s="22" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="19">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="19">
         <v>35</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="22" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="19">
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="19">
         <v>36</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="G37" s="22" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="19">
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="19">
         <v>37</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="G38" s="22" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="19">
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="19">
         <v>38</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="G39" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="19">
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="19">
         <v>39</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="G40" s="22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="19">
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="19">
         <v>40</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="G41" s="22" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="19">
+    <row r="42" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F42" s="19">
         <v>41</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="G42" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="19">
+    <row r="43" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F43" s="19">
         <v>42</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="G43" s="22" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="19">
+    <row r="44" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="19">
         <v>43</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="G44" s="22" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="19">
+    <row r="45" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F45" s="19">
         <v>44</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="G45" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="19">
+    <row r="46" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="19">
         <v>45</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="G46" s="22" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="19">
+    <row r="47" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F47" s="19">
         <v>46</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="G47" s="22" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="19">
+    <row r="48" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F48" s="19">
         <v>47</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="G48" s="22" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="19">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49" s="19">
         <v>48</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="G49" s="22" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="19">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F50" s="19">
         <v>49</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="G50" s="22" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="19">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F51" s="19">
         <v>50</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="G51" s="22" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="19">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F52" s="19">
         <v>51</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="G52" s="22" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="19">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="19">
         <v>52</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="G53" s="22" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="19">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="19">
         <v>53</v>
       </c>
-      <c r="F54" s="22" t="s">
+      <c r="G54" s="22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="19">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="19">
         <v>54</v>
       </c>
-      <c r="F55" s="22" t="s">
+      <c r="G55" s="22" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="19">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="19">
         <v>55</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="G56" s="22" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="19">
+    <row r="57" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F57" s="19">
         <v>56</v>
       </c>
-      <c r="F57" s="22" t="s">
+      <c r="G57" s="22" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="19">
+    <row r="58" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F58" s="19">
         <v>57</v>
       </c>
-      <c r="F58" s="22" t="s">
+      <c r="G58" s="22" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="19">
+    <row r="59" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F59" s="19">
         <v>58</v>
       </c>
-      <c r="F59" s="22" t="s">
+      <c r="G59" s="22" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="19">
+    <row r="60" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F60" s="19">
         <v>59</v>
       </c>
-      <c r="F60" s="22" t="s">
+      <c r="G60" s="22" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="19">
+    <row r="61" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F61" s="19">
         <v>60</v>
       </c>
-      <c r="F61" s="22" t="s">
+      <c r="G61" s="22" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="19">
+    <row r="62" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F62" s="19">
         <v>61</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="G62" s="22" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="19">
+    <row r="63" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F63" s="19">
         <v>62</v>
       </c>
-      <c r="F63" s="22" t="s">
+      <c r="G63" s="22" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="19">
+    <row r="64" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F64" s="19">
         <v>63</v>
       </c>
-      <c r="F64" s="22" t="s">
+      <c r="G64" s="22" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="19">
+    <row r="65" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F65" s="19">
         <v>64</v>
       </c>
-      <c r="F65" s="22" t="s">
+      <c r="G65" s="22" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="19">
+    <row r="66" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F66" s="19">
         <v>65</v>
       </c>
-      <c r="F66" s="22" t="s">
+      <c r="G66" s="22" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="19">
+    <row r="67" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F67" s="19">
         <v>66</v>
       </c>
-      <c r="F67" s="22" t="s">
+      <c r="G67" s="22" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="19">
+    <row r="68" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F68" s="19">
         <v>67</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="G68" s="22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="19">
+    <row r="69" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F69" s="19">
         <v>68</v>
       </c>
-      <c r="F69" s="22" t="s">
+      <c r="G69" s="22" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="19">
+    <row r="70" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F70" s="19">
         <v>69</v>
       </c>
-      <c r="F70" s="22" t="s">
+      <c r="G70" s="22" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="19">
+    <row r="71" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F71" s="19">
         <v>70</v>
       </c>
-      <c r="F71" s="22" t="s">
+      <c r="G71" s="22" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="19">
+    <row r="72" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F72" s="19">
         <v>71</v>
       </c>
-      <c r="F72" s="22" t="s">
+      <c r="G72" s="22" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="19">
+    <row r="73" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F73" s="19">
         <v>72</v>
       </c>
-      <c r="F73" s="22" t="s">
+      <c r="G73" s="22" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="19">
+    <row r="74" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F74" s="19">
         <v>73</v>
       </c>
-      <c r="F74" s="22" t="s">
+      <c r="G74" s="22" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="19">
+    <row r="75" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F75" s="19">
         <v>74</v>
       </c>
-      <c r="F75" s="22" t="s">
+      <c r="G75" s="22" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="19">
+    <row r="76" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F76" s="19">
         <v>75</v>
       </c>
-      <c r="F76" s="22" t="s">
+      <c r="G76" s="22" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="19">
+    <row r="77" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F77" s="19">
         <v>76</v>
       </c>
-      <c r="F77" s="22" t="s">
+      <c r="G77" s="22" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="19">
+    <row r="78" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F78" s="19">
         <v>77</v>
       </c>
-      <c r="F78" s="22" t="s">
+      <c r="G78" s="22" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="19">
+    <row r="79" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F79" s="19">
         <v>78</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="G79" s="22" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="19">
+    <row r="80" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F80" s="19">
         <v>79</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="G80" s="22" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="19">
+    <row r="81" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F81" s="19">
         <v>80</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="G81" s="22" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="19">
+    <row r="82" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F82" s="19">
         <v>81</v>
       </c>
-      <c r="F82" s="22" t="s">
+      <c r="G82" s="22" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="19">
+    <row r="83" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F83" s="19">
         <v>82</v>
       </c>
-      <c r="F83" s="22" t="s">
+      <c r="G83" s="22" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="19">
+    <row r="84" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F84" s="19">
         <v>83</v>
       </c>
-      <c r="F84" s="22" t="s">
+      <c r="G84" s="22" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="19">
+    <row r="85" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F85" s="19">
         <v>84</v>
       </c>
-      <c r="F85" s="22" t="s">
+      <c r="G85" s="22" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="19">
+    <row r="86" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F86" s="19">
         <v>85</v>
       </c>
-      <c r="F86" s="22" t="s">
+      <c r="G86" s="22" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="19">
+    <row r="87" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F87" s="19">
         <v>86</v>
       </c>
-      <c r="F87" s="22" t="s">
+      <c r="G87" s="22" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="19">
+    <row r="88" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F88" s="19">
         <v>87</v>
       </c>
-      <c r="F88" s="22" t="s">
+      <c r="G88" s="22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="19">
+    <row r="89" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F89" s="19">
         <v>88</v>
       </c>
-      <c r="F89" s="22" t="s">
+      <c r="G89" s="22" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="19">
+    <row r="90" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F90" s="19">
         <v>89</v>
       </c>
-      <c r="F90" s="22" t="s">
+      <c r="G90" s="22" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="19">
+    <row r="91" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="19">
         <v>90</v>
       </c>
-      <c r="F91" s="22" t="s">
+      <c r="G91" s="22" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="19">
+    <row r="92" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F92" s="19">
         <v>91</v>
       </c>
-      <c r="F92" s="22" t="s">
+      <c r="G92" s="22" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="19">
+    <row r="93" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F93" s="19">
         <v>92</v>
       </c>
-      <c r="F93" s="22" t="s">
+      <c r="G93" s="22" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="19">
+    <row r="94" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F94" s="19">
         <v>93</v>
       </c>
-      <c r="F94" s="22" t="s">
+      <c r="G94" s="22" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="19">
+    <row r="95" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F95" s="19">
         <v>94</v>
       </c>
-      <c r="F95" s="22" t="s">
+      <c r="G95" s="22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="19">
+    <row r="96" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F96" s="19">
         <v>95</v>
       </c>
-      <c r="F96" s="22" t="s">
+      <c r="G96" s="22" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="19">
+    <row r="97" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F97" s="19">
         <v>96</v>
       </c>
-      <c r="F97" s="22" t="s">
+      <c r="G97" s="22" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="19">
+    <row r="98" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F98" s="19">
         <v>97</v>
       </c>
-      <c r="F98" s="22" t="s">
+      <c r="G98" s="22" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="19">
+    <row r="99" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F99" s="19">
         <v>98</v>
       </c>
-      <c r="F99" s="22" t="s">
+      <c r="G99" s="22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="19">
+    <row r="100" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F100" s="19">
         <v>99</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="G100" s="22" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="19">
+    <row r="101" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F101" s="19">
         <v>100</v>
       </c>
-      <c r="F101" s="22" t="s">
+      <c r="G101" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="19">
+    <row r="102" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F102" s="19">
         <v>101</v>
       </c>
-      <c r="F102" s="22" t="s">
+      <c r="G102" s="22" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="19">
+    <row r="103" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F103" s="19">
         <v>102</v>
       </c>
-      <c r="F103" s="22" t="s">
+      <c r="G103" s="22" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="19">
+    <row r="104" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F104" s="19">
         <v>103</v>
       </c>
-      <c r="F104" s="22" t="s">
+      <c r="G104" s="22" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="19">
+    <row r="105" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F105" s="19">
         <v>104</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="G105" s="22" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E106" s="19">
+    <row r="106" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F106" s="19">
         <v>105</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="G106" s="22" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E107" s="19">
+    <row r="107" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F107" s="19">
         <v>106</v>
       </c>
-      <c r="F107" s="22" t="s">
+      <c r="G107" s="22" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E108" s="19">
+    <row r="108" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F108" s="19">
         <v>107</v>
       </c>
-      <c r="F108" s="22" t="s">
+      <c r="G108" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E109" s="19">
+    <row r="109" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F109" s="19">
         <v>108</v>
       </c>
-      <c r="F109" s="22" t="s">
+      <c r="G109" s="22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E110" s="19">
+    <row r="110" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F110" s="19">
         <v>109</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="G110" s="22" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E111" s="19">
+    <row r="111" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F111" s="19">
         <v>110</v>
       </c>
-      <c r="F111" s="22" t="s">
+      <c r="G111" s="22" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E112" s="19">
+    <row r="112" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F112" s="19">
         <v>111</v>
       </c>
-      <c r="F112" s="22" t="s">
+      <c r="G112" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E113" s="19">
+    <row r="113" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F113" s="19">
         <v>112</v>
       </c>
-      <c r="F113" s="22" t="s">
+      <c r="G113" s="22" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E114" s="19">
+    <row r="114" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="19">
         <v>113</v>
       </c>
-      <c r="F114" s="22" t="s">
+      <c r="G114" s="22" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E115" s="19">
+    <row r="115" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="19">
         <v>114</v>
       </c>
-      <c r="F115" s="22" t="s">
+      <c r="G115" s="22" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E116" s="19">
+    <row r="116" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F116" s="19">
         <v>115</v>
       </c>
-      <c r="F116" s="22" t="s">
+      <c r="G116" s="22" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E117" s="19">
+    <row r="117" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F117" s="19">
         <v>116</v>
       </c>
-      <c r="F117" s="22" t="s">
+      <c r="G117" s="22" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E118" s="19">
+    <row r="118" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F118" s="19">
         <v>117</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="G118" s="22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E119" s="19">
+    <row r="119" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F119" s="19">
         <v>118</v>
       </c>
-      <c r="F119" s="22" t="s">
+      <c r="G119" s="22" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E120" s="19">
+    <row r="120" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F120" s="19">
         <v>119</v>
       </c>
-      <c r="F120" s="22" t="s">
+      <c r="G120" s="22" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E121" s="19">
+    <row r="121" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F121" s="19">
         <v>120</v>
       </c>
-      <c r="F121" s="22" t="s">
+      <c r="G121" s="22" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E122" s="19">
+    <row r="122" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F122" s="19">
         <v>121</v>
       </c>
-      <c r="F122" s="22" t="s">
+      <c r="G122" s="22" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E123" s="19">
+    <row r="123" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F123" s="19">
         <v>122</v>
       </c>
-      <c r="F123" s="22" t="s">
+      <c r="G123" s="22" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E124" s="19">
+    <row r="124" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F124" s="19">
         <v>123</v>
       </c>
-      <c r="F124" s="22" t="s">
+      <c r="G124" s="22" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E125" s="19">
+    <row r="125" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F125" s="19">
         <v>124</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="G125" s="22" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E126" s="19">
+    <row r="126" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F126" s="19">
         <v>125</v>
       </c>
-      <c r="F126" s="22" t="s">
+      <c r="G126" s="22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E127" s="19">
+    <row r="127" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F127" s="19">
         <v>126</v>
       </c>
-      <c r="F127" s="22" t="s">
+      <c r="G127" s="22" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E128" s="19">
+    <row r="128" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F128" s="19">
         <v>127</v>
       </c>
-      <c r="F128" s="22" t="s">
+      <c r="G128" s="22" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E129" s="19">
+    <row r="129" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F129" s="19">
         <v>128</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="G129" s="22" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E130" s="19">
+    <row r="130" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F130" s="19">
         <v>129</v>
       </c>
-      <c r="F130" s="22" t="s">
+      <c r="G130" s="22" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E131" s="19">
+    <row r="131" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F131" s="19">
         <v>130</v>
       </c>
-      <c r="F131" s="22" t="s">
+      <c r="G131" s="22" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="19">
+    <row r="132" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F132" s="19">
         <v>131</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="G132" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E133" s="19">
+    <row r="133" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="19">
         <v>132</v>
       </c>
-      <c r="F133" s="22" t="s">
+      <c r="G133" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E134" s="19">
+    <row r="134" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F134" s="19">
         <v>133</v>
       </c>
-      <c r="F134" s="22" t="s">
+      <c r="G134" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E135" s="19">
+    <row r="135" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F135" s="19">
         <v>134</v>
       </c>
-      <c r="F135" s="22" t="s">
+      <c r="G135" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E136" s="19">
+    <row r="136" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F136" s="19">
         <v>135</v>
       </c>
-      <c r="F136" s="22" t="s">
+      <c r="G136" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E137" s="19">
+    <row r="137" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F137" s="19">
         <v>136</v>
       </c>
-      <c r="F137" s="22" t="s">
+      <c r="G137" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E138" s="19">
+    <row r="138" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F138" s="19">
         <v>137</v>
       </c>
-      <c r="F138" s="22" t="s">
+      <c r="G138" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E139" s="19">
+    <row r="139" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F139" s="19">
         <v>138</v>
       </c>
-      <c r="F139" s="22" t="s">
+      <c r="G139" s="22" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E140" s="19">
+    <row r="140" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F140" s="19">
         <v>139</v>
       </c>
-      <c r="F140" s="22" t="s">
+      <c r="G140" s="22" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E141" s="19">
+    <row r="141" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F141" s="19">
         <v>140</v>
       </c>
-      <c r="F141" s="22" t="s">
+      <c r="G141" s="22" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E142" s="19">
+    <row r="142" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F142" s="19">
         <v>141</v>
       </c>
-      <c r="F142" s="22" t="s">
+      <c r="G142" s="22" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E143" s="19">
+    <row r="143" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F143" s="19">
         <v>142</v>
       </c>
-      <c r="F143" s="22" t="s">
+      <c r="G143" s="22" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E144" s="19">
+    <row r="144" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F144" s="19">
         <v>143</v>
       </c>
-      <c r="F144" s="22" t="s">
+      <c r="G144" s="22" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E145" s="19">
+    <row r="145" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F145" s="19">
         <v>144</v>
       </c>
-      <c r="F145" s="22" t="s">
+      <c r="G145" s="22" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E146" s="19">
+    <row r="146" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F146" s="19">
         <v>145</v>
       </c>
-      <c r="F146" s="22" t="s">
+      <c r="G146" s="22" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E147" s="19">
+    <row r="147" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F147" s="19">
         <v>146</v>
       </c>
-      <c r="F147" s="22" t="s">
+      <c r="G147" s="22" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E148" s="19">
+    <row r="148" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F148" s="19">
         <v>147</v>
       </c>
-      <c r="F148" s="22" t="s">
+      <c r="G148" s="22" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E149" s="19">
+    <row r="149" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F149" s="19">
         <v>148</v>
       </c>
-      <c r="F149" s="22" t="s">
+      <c r="G149" s="22" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E150" s="19">
+    <row r="150" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F150" s="19">
         <v>149</v>
       </c>
-      <c r="F150" s="22" t="s">
+      <c r="G150" s="22" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E151" s="19">
+    <row r="151" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F151" s="19">
         <v>150</v>
       </c>
-      <c r="F151" s="22" t="s">
+      <c r="G151" s="22" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E152" s="19">
+    <row r="152" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F152" s="19">
         <v>151</v>
       </c>
-      <c r="F152" s="22" t="s">
+      <c r="G152" s="22" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="153" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E153" s="19">
+    <row r="153" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F153" s="19">
         <v>152</v>
       </c>
-      <c r="F153" s="22" t="s">
+      <c r="G153" s="22" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="154" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E154" s="19">
+    <row r="154" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F154" s="19">
         <v>153</v>
       </c>
-      <c r="F154" s="22" t="s">
+      <c r="G154" s="22" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="155" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E155" s="19">
+    <row r="155" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F155" s="19">
         <v>154</v>
       </c>
-      <c r="F155" s="22" t="s">
+      <c r="G155" s="22" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="156" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E156" s="19">
+    <row r="156" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F156" s="19">
         <v>155</v>
       </c>
-      <c r="F156" s="22" t="s">
+      <c r="G156" s="22" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="157" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E157" s="19">
+    <row r="157" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F157" s="19">
         <v>156</v>
       </c>
-      <c r="F157" s="22" t="s">
+      <c r="G157" s="22" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="158" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E158" s="19">
+    <row r="158" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F158" s="19">
         <v>157</v>
       </c>
-      <c r="F158" s="22" t="s">
+      <c r="G158" s="22" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="159" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E159" s="19">
+    <row r="159" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F159" s="19">
         <v>158</v>
       </c>
-      <c r="F159" s="22" t="s">
+      <c r="G159" s="22" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="160" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E160" s="19">
+    <row r="160" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F160" s="19">
         <v>159</v>
       </c>
-      <c r="F160" s="22" t="s">
+      <c r="G160" s="22" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="161" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E161" s="19">
+    <row r="161" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F161" s="19">
         <v>160</v>
       </c>
-      <c r="F161" s="22" t="s">
+      <c r="G161" s="22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="162" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E162" s="19">
+    <row r="162" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F162" s="19">
         <v>161</v>
       </c>
-      <c r="F162" s="22" t="s">
+      <c r="G162" s="22" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="163" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E163" s="19">
+    <row r="163" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F163" s="19">
         <v>162</v>
       </c>
-      <c r="F163" s="22" t="s">
+      <c r="G163" s="22" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="164" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E164" s="19">
+    <row r="164" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F164" s="19">
         <v>163</v>
       </c>
-      <c r="F164" s="22" t="s">
+      <c r="G164" s="22" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="165" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E165" s="19">
+    <row r="165" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F165" s="19">
         <v>164</v>
       </c>
-      <c r="F165" s="22" t="s">
+      <c r="G165" s="22" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="166" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E166" s="19">
+    <row r="166" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F166" s="19">
         <v>165</v>
       </c>
-      <c r="F166" s="22" t="s">
+      <c r="G166" s="22" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="167" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E167" s="19">
+    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F167" s="19">
         <v>166</v>
       </c>
-      <c r="F167" s="22" t="s">
+      <c r="G167" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E168" s="19">
+    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F168" s="19">
         <v>167</v>
       </c>
-      <c r="F168" s="22" t="s">
+      <c r="G168" s="22" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="169" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E169" s="19">
+    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F169" s="19">
         <v>168</v>
       </c>
-      <c r="F169" s="22" t="s">
+      <c r="G169" s="22" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="170" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E170" s="19">
+    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F170" s="19">
         <v>169</v>
       </c>
-      <c r="F170" s="22" t="s">
+      <c r="G170" s="22" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="171" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E171" s="19">
+    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F171" s="19">
         <v>170</v>
       </c>
-      <c r="F171" s="22" t="s">
+      <c r="G171" s="22" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="172" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E172" s="19">
+    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F172" s="19">
         <v>171</v>
       </c>
-      <c r="F172" s="22" t="s">
+      <c r="G172" s="22" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="173" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E173" s="19">
+    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F173" s="19">
         <v>172</v>
       </c>
-      <c r="F173" s="22" t="s">
+      <c r="G173" s="22" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="174" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E174" s="19">
+    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F174" s="19">
         <v>173</v>
       </c>
-      <c r="F174" s="22" t="s">
+      <c r="G174" s="22" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="175" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E175" s="19">
+    <row r="175" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F175" s="19">
         <v>174</v>
       </c>
-      <c r="F175" s="22" t="s">
+      <c r="G175" s="22" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E176" s="19">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F176" s="19">
         <v>175</v>
       </c>
-      <c r="F176" s="22" t="s">
+      <c r="G176" s="22" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="177" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E177" s="19">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F177" s="19">
         <v>176</v>
       </c>
-      <c r="F177" s="22" t="s">
+      <c r="G177" s="22" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="178" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E178" s="19">
+    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F178" s="19">
         <v>177</v>
       </c>
-      <c r="F178" s="22" t="s">
+      <c r="G178" s="22" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="179" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E179" s="19">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F179" s="19">
         <v>178</v>
       </c>
-      <c r="F179" s="22" t="s">
+      <c r="G179" s="22" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="180" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E180" s="19">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F180" s="19">
         <v>179</v>
       </c>
-      <c r="F180" s="22" t="s">
+      <c r="G180" s="22" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="181" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E181" s="19">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F181" s="19">
         <v>180</v>
       </c>
-      <c r="F181" s="22" t="s">
+      <c r="G181" s="22" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="182" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E182" s="19">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F182" s="19">
         <v>181</v>
       </c>
-      <c r="F182" s="22" t="s">
+      <c r="G182" s="22" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="183" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E183" s="19">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F183" s="19">
         <v>182</v>
       </c>
-      <c r="F183" s="22" t="s">
+      <c r="G183" s="22" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="184" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E184" s="19">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F184" s="19">
         <v>183</v>
       </c>
-      <c r="F184" s="22" t="s">
+      <c r="G184" s="22" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="185" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E185" s="19">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F185" s="19">
         <v>184</v>
       </c>
-      <c r="F185" s="22" t="s">
+      <c r="G185" s="22" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="186" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E186" s="19">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F186" s="19">
         <v>185</v>
       </c>
-      <c r="F186" s="22" t="s">
+      <c r="G186" s="22" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="187" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E187" s="19">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F187" s="19">
         <v>186</v>
       </c>
-      <c r="F187" s="22" t="s">
+      <c r="G187" s="22" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="188" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E188" s="19">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F188" s="19">
         <v>187</v>
       </c>
-      <c r="F188" s="22" t="s">
+      <c r="G188" s="22" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E189" s="19">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F189" s="19">
         <v>188</v>
       </c>
-      <c r="F189" s="22" t="s">
+      <c r="G189" s="22" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="190" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E190" s="19">
+    <row r="190" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F190" s="19">
         <v>189</v>
       </c>
-      <c r="F190" s="22" t="s">
+      <c r="G190" s="22" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="191" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E191" s="19">
+    <row r="191" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F191" s="19">
         <v>190</v>
       </c>
-      <c r="F191" s="22" t="s">
+      <c r="G191" s="22" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="192" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E192" s="19">
+    <row r="192" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F192" s="19">
         <v>191</v>
       </c>
-      <c r="F192" s="22" t="s">
+      <c r="G192" s="22" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="193" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E193" s="19">
+    <row r="193" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F193" s="19">
         <v>192</v>
       </c>
-      <c r="F193" s="22" t="s">
+      <c r="G193" s="22" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="194" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E194" s="19">
+    <row r="194" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F194" s="19">
         <v>193</v>
       </c>
-      <c r="F194" s="22" t="s">
+      <c r="G194" s="22" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="195" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E195" s="19">
+    <row r="195" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F195" s="19">
         <v>194</v>
       </c>
-      <c r="F195" s="22" t="s">
+      <c r="G195" s="22" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="196" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E196" s="19">
+    <row r="196" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F196" s="19">
         <v>195</v>
       </c>
-      <c r="F196" s="22" t="s">
+      <c r="G196" s="22" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="197" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E197" s="19">
+    <row r="197" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F197" s="19">
         <v>196</v>
       </c>
-      <c r="F197" s="22" t="s">
+      <c r="G197" s="22" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="198" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E198" s="19">
+    <row r="198" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F198" s="19">
         <v>197</v>
       </c>
-      <c r="F198" s="22" t="s">
+      <c r="G198" s="22" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="199" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E199" s="19">
+    <row r="199" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F199" s="19">
         <v>198</v>
       </c>
-      <c r="F199" s="22" t="s">
+      <c r="G199" s="22" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="200" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E200" s="19">
+    <row r="200" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F200" s="19">
         <v>199</v>
       </c>
-      <c r="F200" s="22" t="s">
+      <c r="G200" s="22" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="201" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E201" s="19">
+    <row r="201" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F201" s="19">
         <v>200</v>
       </c>
-      <c r="F201" s="22" t="s">
+      <c r="G201" s="22" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="202" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E202" s="19">
+    <row r="202" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F202" s="19">
         <v>201</v>
       </c>
-      <c r="F202" s="22" t="s">
+      <c r="G202" s="22" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="203" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E203" s="19">
+    <row r="203" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F203" s="19">
         <v>202</v>
       </c>
-      <c r="F203" s="22" t="s">
+      <c r="G203" s="22" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="204" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E204" s="19">
+    <row r="204" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F204" s="19">
         <v>203</v>
       </c>
-      <c r="F204" s="22" t="s">
+      <c r="G204" s="22" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="205" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E205" s="19">
+    <row r="205" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F205" s="19">
         <v>204</v>
       </c>
-      <c r="F205" s="22" t="s">
+      <c r="G205" s="22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="206" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E206" s="19">
+    <row r="206" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F206" s="19">
         <v>205</v>
       </c>
-      <c r="F206" s="22" t="s">
+      <c r="G206" s="22" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="207" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E207" s="19">
+    <row r="207" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F207" s="19">
         <v>206</v>
       </c>
-      <c r="F207" s="22" t="s">
+      <c r="G207" s="22" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="208" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E208" s="19">
+    <row r="208" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F208" s="19">
         <v>207</v>
       </c>
-      <c r="F208" s="22" t="s">
+      <c r="G208" s="22" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="209" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E209" s="19">
+    <row r="209" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F209" s="19">
         <v>208</v>
       </c>
-      <c r="F209" s="22" t="s">
+      <c r="G209" s="22" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="210" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E210" s="19">
+    <row r="210" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F210" s="19">
         <v>209</v>
       </c>
-      <c r="F210" s="22" t="s">
+      <c r="G210" s="22" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="211" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E211" s="19">
+    <row r="211" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F211" s="19">
         <v>210</v>
       </c>
-      <c r="F211" s="22" t="s">
+      <c r="G211" s="22" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="212" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E212" s="19">
+    <row r="212" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F212" s="19">
         <v>211</v>
       </c>
-      <c r="F212" s="22" t="s">
+      <c r="G212" s="22" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E213" s="19">
+    <row r="213" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F213" s="19">
         <v>212</v>
       </c>
-      <c r="F213" s="22" t="s">
+      <c r="G213" s="22" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E214" s="19">
+    <row r="214" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F214" s="19">
         <v>213</v>
       </c>
-      <c r="F214" s="22" t="s">
+      <c r="G214" s="22" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="215" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E215" s="19">
+    <row r="215" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F215" s="19">
         <v>214</v>
       </c>
-      <c r="F215" s="22" t="s">
+      <c r="G215" s="22" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="216" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E216" s="19">
+    <row r="216" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F216" s="19">
         <v>215</v>
       </c>
-      <c r="F216" s="22" t="s">
+      <c r="G216" s="22" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="217" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E217" s="19">
+    <row r="217" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F217" s="19">
         <v>216</v>
       </c>
-      <c r="F217" s="22" t="s">
+      <c r="G217" s="22" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="218" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E218" s="19">
+    <row r="218" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F218" s="19">
         <v>217</v>
       </c>
-      <c r="F218" s="22" t="s">
+      <c r="G218" s="22" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="219" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E219" s="19">
+    <row r="219" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F219" s="19">
         <v>218</v>
       </c>
-      <c r="F219" s="22" t="s">
+      <c r="G219" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="220" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E220" s="19">
+    <row r="220" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F220" s="19">
         <v>219</v>
       </c>
-      <c r="F220" s="22" t="s">
+      <c r="G220" s="22" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="221" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E221" s="19">
+    <row r="221" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F221" s="19">
         <v>220</v>
       </c>
-      <c r="F221" s="22" t="s">
+      <c r="G221" s="22" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="222" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E222" s="19">
+    <row r="222" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F222" s="19">
         <v>221</v>
       </c>
-      <c r="F222" s="22" t="s">
+      <c r="G222" s="22" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="223" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E223" s="19">
+    <row r="223" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F223" s="19">
         <v>222</v>
       </c>
-      <c r="F223" s="22" t="s">
+      <c r="G223" s="22" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="224" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E224" s="19">
+    <row r="224" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F224" s="19">
         <v>223</v>
       </c>
-      <c r="F224" s="22" t="s">
+      <c r="G224" s="22" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="225" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E225" s="19">
+    <row r="225" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F225" s="19">
         <v>224</v>
       </c>
-      <c r="F225" s="22" t="s">
+      <c r="G225" s="22" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E226" s="19">
+    <row r="226" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F226" s="19">
         <v>225</v>
       </c>
-      <c r="F226" s="22" t="s">
+      <c r="G226" s="22" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="227" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E227" s="19">
+    <row r="227" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F227" s="19">
         <v>226</v>
       </c>
-      <c r="F227" s="22" t="s">
+      <c r="G227" s="22" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="228" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E228" s="19">
+    <row r="228" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F228" s="19">
         <v>227</v>
       </c>
-      <c r="F228" s="22" t="s">
+      <c r="G228" s="22" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="229" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E229" s="19">
+    <row r="229" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F229" s="19">
         <v>228</v>
       </c>
-      <c r="F229" s="22" t="s">
+      <c r="G229" s="22" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="230" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E230" s="19">
+    <row r="230" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F230" s="19">
         <v>229</v>
       </c>
-      <c r="F230" s="22" t="s">
+      <c r="G230" s="22" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="231" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E231" s="19">
+    <row r="231" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F231" s="19">
         <v>230</v>
       </c>
-      <c r="F231" s="22" t="s">
+      <c r="G231" s="22" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="232" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E232" s="19">
+    <row r="232" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F232" s="19">
         <v>231</v>
       </c>
-      <c r="F232" s="22" t="s">
+      <c r="G232" s="22" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="233" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E233" s="19">
+    <row r="233" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F233" s="19">
         <v>232</v>
       </c>
-      <c r="F233" s="22" t="s">
+      <c r="G233" s="22" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="234" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E234" s="19">
+    <row r="234" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F234" s="19">
         <v>233</v>
       </c>
-      <c r="F234" s="22" t="s">
+      <c r="G234" s="22" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="235" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E235" s="19">
+    <row r="235" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F235" s="19">
         <v>234</v>
       </c>
-      <c r="F235" s="22" t="s">
+      <c r="G235" s="22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="236" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E236" s="19">
+    <row r="236" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F236" s="19">
         <v>235</v>
       </c>
-      <c r="F236" s="22" t="s">
+      <c r="G236" s="22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="237" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E237" s="19">
+    <row r="237" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F237" s="19">
         <v>236</v>
       </c>
-      <c r="F237" s="22" t="s">
+      <c r="G237" s="22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="238" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E238" s="19">
+    <row r="238" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F238" s="19">
         <v>237</v>
       </c>
-      <c r="F238" s="22" t="s">
+      <c r="G238" s="22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="239" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E239" s="19">
+    <row r="239" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F239" s="19">
         <v>238</v>
       </c>
-      <c r="F239" s="22" t="s">
+      <c r="G239" s="22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="240" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E240" s="19">
+    <row r="240" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F240" s="19">
         <v>239</v>
       </c>
-      <c r="F240" s="22" t="s">
+      <c r="G240" s="22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="241" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E241" s="19">
+    <row r="241" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F241" s="19">
         <v>240</v>
       </c>
-      <c r="F241" s="22" t="s">
+      <c r="G241" s="22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="242" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E242" s="19">
+    <row r="242" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F242" s="19">
         <v>241</v>
       </c>
-      <c r="F242" s="22" t="s">
+      <c r="G242" s="22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="243" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E243" s="19">
+    <row r="243" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F243" s="19">
         <v>242</v>
       </c>
-      <c r="F243" s="22" t="s">
+      <c r="G243" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="244" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E244" s="19">
+    <row r="244" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F244" s="19">
         <v>243</v>
       </c>
-      <c r="F244" s="22" t="s">
+      <c r="G244" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="245" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E245" s="19">
+    <row r="245" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F245" s="19">
         <v>244</v>
       </c>
-      <c r="F245" s="22" t="s">
+      <c r="G245" s="22" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="246" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E246" s="19">
+    <row r="246" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F246" s="19">
         <v>245</v>
       </c>
-      <c r="F246" s="22" t="s">
+      <c r="G246" s="22" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="247" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E247" s="19">
+    <row r="247" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F247" s="19">
         <v>246</v>
       </c>
-      <c r="F247" s="22" t="s">
+      <c r="G247" s="22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="248" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E248" s="19">
+    <row r="248" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F248" s="19">
         <v>247</v>
       </c>
-      <c r="F248" s="22" t="s">
+      <c r="G248" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="249" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E249" s="19">
+    <row r="249" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F249" s="19">
         <v>248</v>
       </c>
-      <c r="F249" s="22" t="s">
+      <c r="G249" s="22" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="250" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E250" s="19">
+    <row r="250" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F250" s="19">
         <v>249</v>
       </c>
-      <c r="F250" s="22" t="s">
+      <c r="G250" s="22" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="251" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E251" s="19">
+    <row r="251" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F251" s="19">
         <v>250</v>
       </c>
-      <c r="F251" s="22" t="s">
+      <c r="G251" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="252" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E252" s="19">
+    <row r="252" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F252" s="19">
         <v>251</v>
       </c>
-      <c r="F252" s="22" t="s">
+      <c r="G252" s="22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="253" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E253" s="19">
+    <row r="253" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F253" s="19">
         <v>252</v>
       </c>
-      <c r="F253" s="22" t="s">
+      <c r="G253" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="254" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E254" s="19">
+    <row r="254" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F254" s="19">
         <v>253</v>
       </c>
-      <c r="F254" s="22" t="s">
+      <c r="G254" s="22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="255" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E255" s="19">
+    <row r="255" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F255" s="19">
         <v>254</v>
       </c>
-      <c r="F255" s="22" t="s">
+      <c r="G255" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="256" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E256" s="19">
+    <row r="256" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F256" s="19">
         <v>255</v>
       </c>
-      <c r="F256" s="22" t="s">
+      <c r="G256" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="257" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E257" s="19">
+    <row r="257" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F257" s="19">
         <v>256</v>
       </c>
-      <c r="F257" s="22" t="s">
+      <c r="G257" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="258" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E258" s="19">
+    <row r="258" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F258" s="19">
         <v>257</v>
       </c>
-      <c r="F258" s="22" t="s">
+      <c r="G258" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="259" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E259" s="19">
+    <row r="259" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F259" s="19">
         <v>258</v>
       </c>
-      <c r="F259" s="22" t="s">
+      <c r="G259" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="260" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E260" s="19">
+    <row r="260" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F260" s="19">
         <v>259</v>
       </c>
-      <c r="F260" s="22" t="s">
+      <c r="G260" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="261" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E261" s="19">
+    <row r="261" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F261" s="19">
         <v>260</v>
       </c>
-      <c r="F261" s="22" t="s">
+      <c r="G261" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="262" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E262" s="19">
+    <row r="262" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F262" s="19">
         <v>261</v>
       </c>
-      <c r="F262" s="22" t="s">
+      <c r="G262" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="263" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E263" s="19">
+    <row r="263" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F263" s="19">
         <v>262</v>
       </c>
-      <c r="F263" s="22" t="s">
+      <c r="G263" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="264" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E264" s="19">
+    <row r="264" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F264" s="19">
         <v>263</v>
       </c>
-      <c r="F264" s="22" t="s">
+      <c r="G264" s="22" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="265" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E265" s="19">
+    <row r="265" spans="6:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F265" s="19">
         <v>264</v>
       </c>
-      <c r="F265" s="22" t="s">
+      <c r="G265" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="266" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E266" s="19">
+    <row r="266" spans="6:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F266" s="19">
         <v>265</v>
       </c>
-      <c r="F266" s="22" t="s">
+      <c r="G266" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="267" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E267" s="19">
+    <row r="267" spans="6:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F267" s="19">
         <v>266</v>
       </c>
-      <c r="F267" s="22" t="s">
+      <c r="G267" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="268" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E268" s="19">
+    <row r="268" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F268" s="19">
         <v>267</v>
       </c>
-      <c r="F268" s="22" t="s">
+      <c r="G268" s="22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="269" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E269" s="19">
+    <row r="269" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F269" s="19">
         <v>268</v>
       </c>
-      <c r="F269" s="22" t="s">
+      <c r="G269" s="22" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="270" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E270" s="19">
+    <row r="270" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F270" s="19">
         <v>269</v>
       </c>
-      <c r="F270" s="22" t="s">
+      <c r="G270" s="22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="271" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E271" s="19">
+    <row r="271" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F271" s="19">
         <v>270</v>
       </c>
-      <c r="F271" s="22" t="s">
+      <c r="G271" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="272" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E272" s="19">
+    <row r="272" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F272" s="19">
         <v>271</v>
       </c>
-      <c r="F272" s="22" t="s">
+      <c r="G272" s="22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="273" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E273" s="19">
+    <row r="273" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F273" s="19">
         <v>272</v>
       </c>
-      <c r="F273" s="22" t="s">
+      <c r="G273" s="22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="274" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E274" s="19">
+    <row r="274" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F274" s="19">
         <v>273</v>
       </c>
-      <c r="F274" s="22" t="s">
+      <c r="G274" s="22" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="275" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E275" s="19">
+    <row r="275" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F275" s="19">
         <v>274</v>
       </c>
-      <c r="F275" s="22" t="s">
+      <c r="G275" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="276" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E276" s="19">
+    <row r="276" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F276" s="19">
         <v>275</v>
       </c>
-      <c r="F276" s="22" t="s">
+      <c r="G276" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="277" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E277" s="19">
+    <row r="277" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F277" s="19">
         <v>276</v>
       </c>
-      <c r="F277" s="22" t="s">
+      <c r="G277" s="22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="278" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E278" s="19">
+    <row r="278" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F278" s="19">
         <v>277</v>
       </c>
-      <c r="F278" s="22" t="s">
+      <c r="G278" s="22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="279" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E279" s="19">
+    <row r="279" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F279" s="19">
         <v>278</v>
       </c>
-      <c r="F279" s="22" t="s">
+      <c r="G279" s="22" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="280" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E280" s="19">
+    <row r="280" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F280" s="19">
         <v>279</v>
       </c>
-      <c r="F280" s="22" t="s">
+      <c r="G280" s="22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="281" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E281" s="19">
+    <row r="281" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F281" s="19">
         <v>280</v>
       </c>
-      <c r="F281" s="22" t="s">
+      <c r="G281" s="22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="282" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E282" s="19">
+    <row r="282" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F282" s="19">
         <v>281</v>
       </c>
-      <c r="F282" s="22" t="s">
+      <c r="G282" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="283" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E283" s="19">
+    <row r="283" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F283" s="19">
         <v>282</v>
       </c>
-      <c r="F283" s="22" t="s">
+      <c r="G283" s="22" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="284" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E284" s="19">
+    <row r="284" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F284" s="19">
         <v>283</v>
       </c>
-      <c r="F284" s="22" t="s">
+      <c r="G284" s="22" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="285" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E285" s="19">
+    <row r="285" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F285" s="19">
         <v>284</v>
       </c>
-      <c r="F285" s="22" t="s">
+      <c r="G285" s="22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="286" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E286" s="19">
+    <row r="286" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F286" s="19">
         <v>285</v>
       </c>
-      <c r="F286" s="22" t="s">
+      <c r="G286" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="287" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E287" s="19">
+    <row r="287" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F287" s="19">
         <v>286</v>
       </c>
-      <c r="F287" s="22" t="s">
+      <c r="G287" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="288" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E288" s="19">
+    <row r="288" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F288" s="19">
         <v>287</v>
       </c>
-      <c r="F288" s="22" t="s">
+      <c r="G288" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="289" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E289" s="19">
+    <row r="289" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F289" s="19">
         <v>288</v>
       </c>
-      <c r="F289" s="22" t="s">
+      <c r="G289" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="290" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E290" s="19">
+    <row r="290" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F290" s="19">
         <v>289</v>
       </c>
-      <c r="F290" s="22" t="s">
+      <c r="G290" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="291" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E291" s="19">
+    <row r="291" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F291" s="19">
         <v>290</v>
       </c>
-      <c r="F291" s="22" t="s">
+      <c r="G291" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="292" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E292" s="19">
+    <row r="292" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F292" s="19">
         <v>291</v>
       </c>
-      <c r="F292" s="22" t="s">
+      <c r="G292" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="293" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E293" s="19">
+    <row r="293" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F293" s="19">
         <v>292</v>
       </c>
-      <c r="F293" s="22" t="s">
+      <c r="G293" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="294" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E294" s="19">
+    <row r="294" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F294" s="19">
         <v>293</v>
       </c>
-      <c r="F294" s="22" t="s">
+      <c r="G294" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="295" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E295" s="19">
+    <row r="295" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F295" s="19">
         <v>294</v>
       </c>
-      <c r="F295" s="22" t="s">
+      <c r="G295" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="296" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E296" s="19">
+    <row r="296" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F296" s="19">
         <v>295</v>
       </c>
-      <c r="F296" s="22" t="s">
+      <c r="G296" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="297" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E297" s="19">
+    <row r="297" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F297" s="19">
         <v>296</v>
       </c>
-      <c r="F297" s="22" t="s">
+      <c r="G297" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="298" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E298" s="19">
+    <row r="298" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F298" s="19">
         <v>297</v>
       </c>
-      <c r="F298" s="22" t="s">
+      <c r="G298" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="299" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E299" s="19">
+    <row r="299" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F299" s="19">
         <v>298</v>
       </c>
-      <c r="F299" s="22" t="s">
+      <c r="G299" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="300" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E300" s="19">
+    <row r="300" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F300" s="19">
         <v>299</v>
       </c>
-      <c r="F300" s="22" t="s">
+      <c r="G300" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="301" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E301" s="19">
+    <row r="301" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F301" s="19">
         <v>300</v>
       </c>
-      <c r="F301" s="22" t="s">
+      <c r="G301" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="302" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E302" s="19">
+    <row r="302" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F302" s="19">
         <v>301</v>
       </c>
-      <c r="F302" s="22" t="s">
+      <c r="G302" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="303" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E303" s="19">
+    <row r="303" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F303" s="19">
         <v>302</v>
       </c>
-      <c r="F303" s="22" t="s">
+      <c r="G303" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="304" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E304" s="19">
+    <row r="304" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F304" s="19">
         <v>303</v>
       </c>
-      <c r="F304" s="22" t="s">
+      <c r="G304" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="305" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E305" s="19">
+    <row r="305" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F305" s="19">
         <v>304</v>
       </c>
-      <c r="F305" s="22" t="s">
+      <c r="G305" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="306" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E306" s="19">
+    <row r="306" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F306" s="19">
         <v>305</v>
       </c>
-      <c r="F306" s="22" t="s">
+      <c r="G306" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="307" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E307" s="19">
+    <row r="307" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F307" s="19">
         <v>306</v>
       </c>
-      <c r="F307" s="22" t="s">
+      <c r="G307" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="308" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E308" s="19">
+    <row r="308" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F308" s="19">
         <v>307</v>
       </c>
-      <c r="F308" s="22" t="s">
+      <c r="G308" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="309" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E309" s="19">
+    <row r="309" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F309" s="19">
         <v>308</v>
       </c>
-      <c r="F309" s="22" t="s">
+      <c r="G309" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="310" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E310" s="19">
+    <row r="310" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F310" s="19">
         <v>309</v>
       </c>
-      <c r="F310" s="22" t="s">
+      <c r="G310" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="311" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E311" s="19">
+    <row r="311" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F311" s="19">
         <v>310</v>
       </c>
-      <c r="F311" s="22" t="s">
+      <c r="G311" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="312" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E312" s="19">
+    <row r="312" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F312" s="19">
         <v>311</v>
       </c>
-      <c r="F312" s="22" t="s">
+      <c r="G312" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="313" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E313" s="19">
+    <row r="313" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F313" s="19">
         <v>312</v>
       </c>
-      <c r="F313" s="22" t="s">
+      <c r="G313" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="314" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E314" s="19">
+    <row r="314" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F314" s="19">
         <v>313</v>
       </c>
-      <c r="F314" s="22" t="s">
+      <c r="G314" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="315" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E315" s="19">
+    <row r="315" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F315" s="19">
         <v>314</v>
       </c>
-      <c r="F315" s="22" t="s">
+      <c r="G315" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="316" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E316" s="19">
+    <row r="316" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F316" s="19">
         <v>315</v>
       </c>
-      <c r="F316" s="22" t="s">
+      <c r="G316" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="317" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E317" s="19">
+    <row r="317" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F317" s="19">
         <v>316</v>
       </c>
-      <c r="F317" s="22" t="s">
+      <c r="G317" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="318" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E318" s="19">
+    <row r="318" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F318" s="19">
         <v>317</v>
       </c>
-      <c r="F318" s="22" t="s">
+      <c r="G318" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="319" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E319" s="19">
+    <row r="319" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F319" s="19">
         <v>318</v>
       </c>
-      <c r="F319" s="22" t="s">
+      <c r="G319" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="320" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E320" s="19">
+    <row r="320" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F320" s="19">
         <v>319</v>
       </c>
-      <c r="F320" s="22" t="s">
+      <c r="G320" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="321" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E321" s="19">
+    <row r="321" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F321" s="19">
         <v>320</v>
       </c>
-      <c r="F321" s="22" t="s">
+      <c r="G321" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="322" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E322" s="19">
+    <row r="322" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F322" s="19">
         <v>321</v>
       </c>
-      <c r="F322" s="22" t="s">
+      <c r="G322" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="323" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E323" s="19">
+    <row r="323" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F323" s="19">
         <v>322</v>
       </c>
-      <c r="F323" s="22" t="s">
+      <c r="G323" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="324" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E324" s="19">
+    <row r="324" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F324" s="19">
         <v>323</v>
       </c>
-      <c r="F324" s="22" t="s">
+      <c r="G324" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="325" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E325" s="19">
+    <row r="325" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F325" s="19">
         <v>324</v>
       </c>
-      <c r="F325" s="22" t="s">
+      <c r="G325" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="326" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E326" s="19">
+    <row r="326" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F326" s="19">
         <v>325</v>
       </c>
-      <c r="F326" s="22" t="s">
+      <c r="G326" s="22" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="327" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E327" s="19">
+    <row r="327" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F327" s="19">
         <v>326</v>
       </c>
-      <c r="F327" s="22" t="s">
+      <c r="G327" s="22" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="328" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E328" s="19">
+    <row r="328" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F328" s="19">
         <v>327</v>
       </c>
-      <c r="F328" s="22" t="s">
+      <c r="G328" s="22" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="329" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E329" s="19">
+    <row r="329" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F329" s="19">
         <v>328</v>
       </c>
-      <c r="F329" s="22" t="s">
+      <c r="G329" s="22" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="330" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E330" s="19">
+    <row r="330" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F330" s="19">
         <v>329</v>
       </c>
-      <c r="F330" s="22" t="s">
+      <c r="G330" s="22" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="331" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E331" s="19">
+    <row r="331" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F331" s="19">
         <v>330</v>
       </c>
-      <c r="F331" s="22" t="s">
+      <c r="G331" s="22" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="332" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E332" s="19">
+    <row r="332" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F332" s="19">
         <v>331</v>
       </c>
-      <c r="F332" s="22" t="s">
+      <c r="G332" s="22" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="333" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E333" s="19">
+    <row r="333" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F333" s="19">
         <v>332</v>
       </c>
-      <c r="F333" s="22" t="s">
+      <c r="G333" s="22" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="334" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E334" s="19">
+    <row r="334" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F334" s="19">
         <v>333</v>
       </c>
-      <c r="F334" s="22" t="s">
+      <c r="G334" s="22" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="335" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E335" s="19">
+    <row r="335" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F335" s="19">
         <v>334</v>
       </c>
-      <c r="F335" s="22" t="s">
+      <c r="G335" s="22" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="336" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E336" s="19">
+    <row r="336" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F336" s="19">
         <v>335</v>
       </c>
-      <c r="F336" s="22" t="s">
+      <c r="G336" s="22" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="337" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E337" s="19">
+    <row r="337" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F337" s="19">
         <v>336</v>
       </c>
-      <c r="F337" s="22" t="s">
+      <c r="G337" s="22" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="338" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E338" s="19">
+    <row r="338" spans="6:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F338" s="19">
         <v>337</v>
       </c>
-      <c r="F338" s="22" t="s">
+      <c r="G338" s="22" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="339" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E339" s="19">
+    <row r="339" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F339" s="19">
         <v>338</v>
       </c>
-      <c r="F339" s="22" t="s">
+      <c r="G339" s="22" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="340" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E340" s="19">
+    <row r="340" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F340" s="19">
         <v>339</v>
       </c>
-      <c r="F340" s="22" t="s">
+      <c r="G340" s="22" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="341" spans="5:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E341" s="19">
+    <row r="341" spans="6:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F341" s="19">
         <v>340</v>
       </c>
-      <c r="F341" s="22" t="s">
+      <c r="G341" s="22" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="342" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E342" s="19">
+    <row r="342" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F342" s="19">
         <v>341</v>
       </c>
-      <c r="F342" s="22" t="s">
+      <c r="G342" s="22" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="343" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E343" s="19">
+    <row r="343" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F343" s="19">
         <v>342</v>
       </c>
-      <c r="F343" s="22" t="s">
+      <c r="G343" s="22" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="344" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E344" s="19">
+    <row r="344" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F344" s="19">
         <v>343</v>
       </c>
-      <c r="F344" s="22" t="s">
+      <c r="G344" s="22" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="345" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E345" s="19">
+    <row r="345" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F345" s="19">
         <v>344</v>
       </c>
-      <c r="F345" s="22" t="s">
+      <c r="G345" s="22" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="346" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E346" s="19">
+    <row r="346" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F346" s="19">
         <v>345</v>
       </c>
-      <c r="F346" s="22" t="s">
+      <c r="G346" s="22" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="347" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E347" s="19">
+    <row r="347" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F347" s="19">
         <v>346</v>
       </c>
-      <c r="F347" s="22" t="s">
+      <c r="G347" s="22" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="348" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E348" s="19">
+    <row r="348" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F348" s="19">
         <v>347</v>
       </c>
-      <c r="F348" s="22" t="s">
+      <c r="G348" s="22" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="349" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E349" s="19">
+    <row r="349" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F349" s="19">
         <v>348</v>
       </c>
-      <c r="F349" s="22" t="s">
+      <c r="G349" s="22" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="350" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E350" s="19">
+    <row r="350" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F350" s="19">
         <v>349</v>
       </c>
-      <c r="F350" s="22" t="s">
+      <c r="G350" s="22" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="351" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E351" s="19">
+    <row r="351" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F351" s="19">
         <v>350</v>
       </c>
-      <c r="F351" s="22" t="s">
+      <c r="G351" s="22" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="352" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E352" s="19">
+    <row r="352" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F352" s="19">
         <v>351</v>
       </c>
-      <c r="F352" s="22" t="s">
+      <c r="G352" s="22" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="353" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E353" s="19">
+    <row r="353" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F353" s="19">
         <v>352</v>
       </c>
-      <c r="F353" s="22" t="s">
+      <c r="G353" s="22" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="354" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E354" s="19">
+    <row r="354" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F354" s="19">
         <v>353</v>
       </c>
-      <c r="F354" s="22" t="s">
+      <c r="G354" s="22" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="355" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E355" s="19">
+    <row r="355" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F355" s="19">
         <v>354</v>
       </c>
-      <c r="F355" s="22" t="s">
+      <c r="G355" s="22" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="356" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E356" s="19">
+    <row r="356" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F356" s="19">
         <v>355</v>
       </c>
-      <c r="F356" s="22" t="s">
+      <c r="G356" s="22" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="357" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E357" s="19">
+    <row r="357" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F357" s="19">
         <v>356</v>
       </c>
-      <c r="F357" s="22" t="s">
+      <c r="G357" s="22" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="358" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E358" s="19">
+    <row r="358" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F358" s="19">
         <v>357</v>
       </c>
-      <c r="F358" s="22" t="s">
+      <c r="G358" s="22" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="359" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E359" s="19">
+    <row r="359" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F359" s="19">
         <v>358</v>
       </c>
-      <c r="F359" s="22" t="s">
+      <c r="G359" s="22" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="360" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E360" s="19">
+    <row r="360" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F360" s="19">
         <v>359</v>
       </c>
-      <c r="F360" s="22" t="s">
+      <c r="G360" s="22" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="361" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E361" s="19">
+    <row r="361" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F361" s="19">
         <v>360</v>
       </c>
-      <c r="F361" s="22" t="s">
+      <c r="G361" s="22" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="362" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E362" s="19">
+    <row r="362" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F362" s="19">
         <v>361</v>
       </c>
-      <c r="F362" s="22" t="s">
+      <c r="G362" s="22" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="363" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E363" s="19">
+    <row r="363" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F363" s="19">
         <v>362</v>
       </c>
-      <c r="F363" s="22" t="s">
+      <c r="G363" s="22" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="364" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E364" s="19">
+    <row r="364" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F364" s="19">
         <v>363</v>
       </c>
-      <c r="F364" s="22" t="s">
+      <c r="G364" s="22" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="365" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E365" s="19">
+    <row r="365" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F365" s="19">
         <v>364</v>
       </c>
-      <c r="F365" s="22" t="s">
+      <c r="G365" s="22" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="366" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E366" s="19">
+    <row r="366" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F366" s="19">
         <v>365</v>
       </c>
-      <c r="F366" s="22" t="s">
+      <c r="G366" s="22" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="367" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E367" s="19">
+    <row r="367" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F367" s="19">
         <v>366</v>
       </c>
-      <c r="F367" s="22" t="s">
+      <c r="G367" s="22" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="368" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E368" s="19">
+    <row r="368" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F368" s="19">
         <v>367</v>
       </c>
-      <c r="F368" s="22" t="s">
+      <c r="G368" s="22" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E369" s="19">
+    <row r="369" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F369" s="19">
         <v>368</v>
       </c>
-      <c r="F369" s="22" t="s">
+      <c r="G369" s="22" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E370" s="19">
+    <row r="370" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F370" s="19">
         <v>369</v>
       </c>
-      <c r="F370" s="22" t="s">
+      <c r="G370" s="22" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E371" s="19">
+    <row r="371" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F371" s="19">
         <v>370</v>
       </c>
-      <c r="F371" s="22" t="s">
+      <c r="G371" s="22" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="372" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E372" s="19">
+    <row r="372" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F372" s="19">
         <v>371</v>
       </c>
-      <c r="F372" s="22" t="s">
+      <c r="G372" s="22" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="373" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E373" s="19">
+    <row r="373" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F373" s="19">
         <v>372</v>
       </c>
-      <c r="F373" s="22" t="s">
+      <c r="G373" s="22" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="374" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E374" s="19">
+    <row r="374" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F374" s="19">
         <v>373</v>
       </c>
-      <c r="F374" s="22" t="s">
+      <c r="G374" s="22" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E375" s="19">
+    <row r="375" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F375" s="19">
         <v>374</v>
       </c>
-      <c r="F375" s="22" t="s">
+      <c r="G375" s="22" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E376" s="19">
+    <row r="376" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F376" s="19">
         <v>375</v>
       </c>
-      <c r="F376" s="22" t="s">
+      <c r="G376" s="22" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="377" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E377" s="19">
+    <row r="377" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F377" s="19">
         <v>376</v>
       </c>
-      <c r="F377" s="22" t="s">
+      <c r="G377" s="22" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="378" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E378" s="19">
+    <row r="378" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F378" s="19">
         <v>377</v>
       </c>
-      <c r="F378" s="22" t="s">
+      <c r="G378" s="22" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="379" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E379" s="19">
+    <row r="379" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F379" s="19">
         <v>378</v>
       </c>
-      <c r="F379" s="22" t="s">
+      <c r="G379" s="22" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="380" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E380" s="19">
+    <row r="380" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F380" s="19">
         <v>379</v>
       </c>
-      <c r="F380" s="22" t="s">
+      <c r="G380" s="22" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="381" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E381" s="19">
+    <row r="381" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F381" s="19">
         <v>380</v>
       </c>
-      <c r="F381" s="22" t="s">
+      <c r="G381" s="22" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="382" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E382" s="19">
+    <row r="382" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F382" s="19">
         <v>381</v>
       </c>
-      <c r="F382" s="22" t="s">
+      <c r="G382" s="22" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="383" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E383" s="19">
+    <row r="383" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F383" s="19">
         <v>382</v>
       </c>
-      <c r="F383" s="22" t="s">
+      <c r="G383" s="22" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="384" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E384" s="19">
+    <row r="384" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F384" s="19">
         <v>383</v>
       </c>
-      <c r="F384" s="22" t="s">
+      <c r="G384" s="22" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="385" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E385" s="19">
+    <row r="385" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F385" s="19">
         <v>384</v>
       </c>
-      <c r="F385" s="22" t="s">
+      <c r="G385" s="22" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="386" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E386" s="19">
+    <row r="386" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F386" s="19">
         <v>385</v>
       </c>
-      <c r="F386" s="22" t="s">
+      <c r="G386" s="22" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="387" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E387" s="19">
+    <row r="387" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F387" s="19">
         <v>386</v>
       </c>
-      <c r="F387" s="22" t="s">
+      <c r="G387" s="22" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="388" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E388" s="19">
+    <row r="388" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F388" s="19">
         <v>387</v>
       </c>
-      <c r="F388" s="22" t="s">
+      <c r="G388" s="22" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="389" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E389" s="19">
+    <row r="389" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F389" s="19">
         <v>388</v>
       </c>
-      <c r="F389" s="22" t="s">
+      <c r="G389" s="22" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="390" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E390" s="19">
+    <row r="390" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F390" s="19">
         <v>389</v>
       </c>
-      <c r="F390" s="22" t="s">
+      <c r="G390" s="22" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="391" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E391" s="19">
+    <row r="391" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F391" s="19">
         <v>390</v>
       </c>
-      <c r="F391" s="22" t="s">
+      <c r="G391" s="22" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="392" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E392" s="19">
+    <row r="392" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F392" s="19">
         <v>391</v>
       </c>
-      <c r="F392" s="22" t="s">
+      <c r="G392" s="22" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="393" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E393" s="19">
+    <row r="393" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F393" s="19">
         <v>392</v>
       </c>
-      <c r="F393" s="22" t="s">
+      <c r="G393" s="22" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="394" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E394" s="19">
+    <row r="394" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F394" s="19">
         <v>393</v>
       </c>
-      <c r="F394" s="22" t="s">
+      <c r="G394" s="22" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="395" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E395" s="19">
+    <row r="395" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F395" s="19">
         <v>394</v>
       </c>
-      <c r="F395" s="22" t="s">
+      <c r="G395" s="22" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="396" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E396" s="19">
+    <row r="396" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F396" s="19">
         <v>395</v>
       </c>
-      <c r="F396" s="22" t="s">
+      <c r="G396" s="22" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="397" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E397" s="19">
+    <row r="397" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F397" s="19">
         <v>396</v>
       </c>
-      <c r="F397" s="22" t="s">
+      <c r="G397" s="22" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="398" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E398" s="19">
+    <row r="398" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F398" s="19">
         <v>397</v>
       </c>
-      <c r="F398" s="22" t="s">
+      <c r="G398" s="22" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="399" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E399" s="19">
+    <row r="399" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F399" s="19">
         <v>398</v>
       </c>
-      <c r="F399" s="22" t="s">
+      <c r="G399" s="22" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="400" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E400" s="19">
+    <row r="400" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F400" s="19">
         <v>399</v>
       </c>
-      <c r="F400" s="22" t="s">
+      <c r="G400" s="22" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="401" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E401" s="19">
+    <row r="401" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F401" s="19">
         <v>400</v>
       </c>
-      <c r="F401" s="22" t="s">
+      <c r="G401" s="22" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="402" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E402" s="19">
+    <row r="402" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F402" s="19">
         <v>401</v>
       </c>
-      <c r="F402" s="22" t="s">
+      <c r="G402" s="22" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="403" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E403" s="19">
+    <row r="403" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F403" s="19">
         <v>402</v>
       </c>
-      <c r="F403" s="22" t="s">
+      <c r="G403" s="22" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="404" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E404" s="19">
+    <row r="404" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F404" s="19">
         <v>403</v>
       </c>
-      <c r="F404" s="22" t="s">
+      <c r="G404" s="22" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="405" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E405" s="19">
+    <row r="405" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F405" s="19">
         <v>404</v>
       </c>
-      <c r="F405" s="22" t="s">
+      <c r="G405" s="22" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="406" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E406" s="19">
+    <row r="406" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F406" s="19">
         <v>405</v>
       </c>
-      <c r="F406" s="22" t="s">
+      <c r="G406" s="22" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="407" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E407" s="19">
+    <row r="407" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F407" s="19">
         <v>406</v>
       </c>
-      <c r="F407" s="22" t="s">
+      <c r="G407" s="22" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="408" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E408" s="19">
+    <row r="408" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F408" s="19">
         <v>407</v>
       </c>
-      <c r="F408" s="22" t="s">
+      <c r="G408" s="22" t="s">
         <v>619</v>
       </c>
     </row>
@@ -11174,7 +11283,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11477,17 +11586,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11499,7 +11608,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12138,17 +12247,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Season 7 - Final\TA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\asd\New folder\Tugas-Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0F040-BCFE-47E0-B7A4-9AD238F5A0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,17 +24,23 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="625">
   <si>
     <t>Nama Concept</t>
   </si>
@@ -1896,12 +1903,24 @@
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>https://3.bp.blogspot.com/-YPQdyFxPyUc/WczHzpfGx9I/AAAAAAAAADA/CSuhOtnzSjYpp-u5KWAj9TCgcNYonNcUwCLcBGAs/s1600/everybody.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn2.tstatic.net/bali/foto/bank/images/bentara_20151025_132340.jpg</t>
+  </si>
+  <si>
+    <t>https://live.staticflickr.com/5058/5453780549_df897bc38a_b.jpg</t>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/Or8-OvuqEqo/maxresdefault.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2191,6 +2210,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2249,12 +2274,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2325,7 +2344,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2351,7 +2369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2499,7 +2517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485402008"/>
@@ -2558,7 +2576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485396432"/>
@@ -2601,7 +2619,7 @@
           <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2654,7 +2672,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2680,7 +2697,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2828,7 +2845,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="486460552"/>
@@ -2887,7 +2904,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="486460224"/>
@@ -2931,7 +2948,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2979,7 +2996,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3002,7 +3018,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3141,7 +3157,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495715256"/>
@@ -3197,7 +3213,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495712304"/>
@@ -3244,7 +3260,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3297,7 +3313,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3320,7 +3335,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="id-ID"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3459,7 +3474,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="398452808"/>
@@ -3515,7 +3530,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="id-ID"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="398456088"/>
@@ -3562,7 +3577,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="id-ID"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5762,7 +5777,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5797,7 +5818,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5832,7 +5859,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5867,7 +5900,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6147,7 +6186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6248,7 +6287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6258,22 +6297,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="13" t="s">
         <v>186</v>
       </c>
@@ -6289,10 +6328,10 @@
       <c r="G2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="38"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -6318,7 +6357,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="14" t="s">
         <v>194</v>
       </c>
@@ -6342,10 +6381,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -6367,10 +6406,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="15">
         <v>1</v>
       </c>
@@ -6392,10 +6431,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="15">
         <v>1</v>
       </c>
@@ -6417,10 +6456,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="15">
         <v>2</v>
       </c>
@@ -6482,10 +6521,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="15">
         <v>2</v>
       </c>
@@ -6506,10 +6545,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="15">
         <v>0</v>
       </c>
@@ -6530,10 +6569,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="15">
         <v>2</v>
       </c>
@@ -6555,17 +6594,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6573,7 +6612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6708,7 +6747,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>142</v>
       </c>
@@ -6728,7 +6767,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>143</v>
       </c>
@@ -6748,7 +6787,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>144</v>
       </c>
@@ -6768,7 +6807,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>145</v>
       </c>
@@ -6854,7 +6893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6966,7 +7005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7222,7 +7261,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>62</v>
       </c>
@@ -7646,11 +7685,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H408"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7673,7 +7712,7 @@
       <c r="C1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="23" t="s">
         <v>620</v>
       </c>
       <c r="F1" s="16" t="s">
@@ -7696,7 +7735,9 @@
       <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="24" t="s">
+        <v>621</v>
+      </c>
       <c r="F2" s="19">
         <v>1</v>
       </c>
@@ -7714,7 +7755,9 @@
       <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="24" t="s">
+        <v>622</v>
+      </c>
       <c r="F3" s="19">
         <v>2</v>
       </c>
@@ -7732,7 +7775,9 @@
       <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="24" t="s">
+        <v>623</v>
+      </c>
       <c r="F4" s="19">
         <v>3</v>
       </c>
@@ -7750,7 +7795,9 @@
       <c r="C5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="24" t="s">
+        <v>624</v>
+      </c>
       <c r="F5" s="19">
         <v>4</v>
       </c>
@@ -7768,7 +7815,7 @@
       <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="24"/>
       <c r="F6" s="19">
         <v>5</v>
       </c>
@@ -7786,7 +7833,7 @@
       <c r="C7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="24"/>
       <c r="F7" s="19">
         <v>6</v>
       </c>
@@ -7804,7 +7851,7 @@
       <c r="C8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="24"/>
       <c r="F8" s="19">
         <v>7</v>
       </c>
@@ -7822,7 +7869,7 @@
       <c r="C9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="24"/>
       <c r="F9" s="19">
         <v>8</v>
       </c>
@@ -7840,7 +7887,7 @@
       <c r="C10" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="24"/>
       <c r="F10" s="19">
         <v>9</v>
       </c>
@@ -7858,7 +7905,7 @@
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="44"/>
+      <c r="D11" s="24"/>
       <c r="F11" s="19">
         <v>10</v>
       </c>
@@ -7876,7 +7923,7 @@
       <c r="C12" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="24"/>
       <c r="F12" s="19">
         <v>11</v>
       </c>
@@ -7894,7 +7941,7 @@
       <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="24"/>
       <c r="F13" s="19">
         <v>12</v>
       </c>
@@ -7912,7 +7959,7 @@
       <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="24"/>
       <c r="F14" s="19">
         <v>13</v>
       </c>
@@ -7930,7 +7977,7 @@
       <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="24"/>
       <c r="F15" s="19">
         <v>14</v>
       </c>
@@ -7948,7 +7995,7 @@
       <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="24"/>
       <c r="F16" s="19">
         <v>15</v>
       </c>
@@ -7966,7 +8013,7 @@
       <c r="C17" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="24"/>
       <c r="F17" s="19">
         <v>16</v>
       </c>
@@ -7984,7 +8031,7 @@
       <c r="C18" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="44"/>
+      <c r="D18" s="24"/>
       <c r="F18" s="19">
         <v>17</v>
       </c>
@@ -8002,7 +8049,7 @@
       <c r="C19" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="44"/>
+      <c r="D19" s="24"/>
       <c r="F19" s="19">
         <v>18</v>
       </c>
@@ -8020,7 +8067,7 @@
       <c r="C20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="24"/>
       <c r="F20" s="19">
         <v>19</v>
       </c>
@@ -8038,7 +8085,7 @@
       <c r="C21" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="44"/>
+      <c r="D21" s="24"/>
       <c r="F21" s="19">
         <v>20</v>
       </c>
@@ -8056,7 +8103,7 @@
       <c r="C22" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="44"/>
+      <c r="D22" s="24"/>
       <c r="F22" s="19">
         <v>21</v>
       </c>
@@ -8074,7 +8121,7 @@
       <c r="C23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="44"/>
+      <c r="D23" s="24"/>
       <c r="F23" s="19">
         <v>22</v>
       </c>
@@ -8092,7 +8139,7 @@
       <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="24"/>
       <c r="F24" s="19">
         <v>23</v>
       </c>
@@ -8110,7 +8157,7 @@
       <c r="C25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="24"/>
       <c r="F25" s="19">
         <v>24</v>
       </c>
@@ -8128,7 +8175,7 @@
       <c r="C26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="24"/>
       <c r="F26" s="19">
         <v>25</v>
       </c>
@@ -8146,7 +8193,7 @@
       <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="24"/>
       <c r="F27" s="19">
         <v>26</v>
       </c>
@@ -8164,7 +8211,7 @@
       <c r="C28" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="24"/>
       <c r="F28" s="19">
         <v>27</v>
       </c>
@@ -8182,7 +8229,7 @@
       <c r="C29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="24"/>
       <c r="F29" s="19">
         <v>28</v>
       </c>
@@ -8200,7 +8247,7 @@
       <c r="C30" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="24"/>
       <c r="F30" s="19">
         <v>29</v>
       </c>
@@ -8218,7 +8265,7 @@
       <c r="C31" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="44"/>
+      <c r="D31" s="24"/>
       <c r="F31" s="19">
         <v>30</v>
       </c>
@@ -11248,7 +11295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11279,7 +11326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11289,20 +11336,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -11323,7 +11370,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -11349,7 +11396,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -11373,10 +11420,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="9">
         <v>6.35</v>
       </c>
@@ -11397,10 +11444,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="9">
         <v>6</v>
       </c>
@@ -11421,10 +11468,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
@@ -11445,10 +11492,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="9">
         <v>7</v>
       </c>
@@ -11489,10 +11536,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="9">
         <v>6.35</v>
       </c>
@@ -11513,10 +11560,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="9">
         <v>6</v>
       </c>
@@ -11537,10 +11584,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="9">
         <v>5</v>
       </c>
@@ -11561,10 +11608,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="9">
         <v>7</v>
       </c>
@@ -11586,17 +11633,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11604,7 +11651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11614,23 +11661,23 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="32" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -11649,10 +11696,10 @@
       <c r="H2" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -11681,7 +11728,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -11708,10 +11755,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="10">
         <v>6.05</v>
       </c>
@@ -11735,10 +11782,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="10">
         <v>6</v>
       </c>
@@ -11762,10 +11809,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="10">
         <v>4</v>
       </c>
@@ -11789,10 +11836,10 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="10">
         <v>7</v>
       </c>
@@ -11836,10 +11883,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B11" s="24"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="10">
         <v>6.05</v>
       </c>
@@ -11860,10 +11907,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="10">
         <v>6</v>
       </c>
@@ -11884,10 +11931,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="10">
         <v>4</v>
       </c>
@@ -11908,10 +11955,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="10">
         <v>7</v>
       </c>
@@ -11952,7 +11999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11962,22 +12009,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="32" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="7" t="s">
         <v>186</v>
       </c>
@@ -11993,10 +12040,10 @@
       <c r="G2" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="31"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -12022,7 +12069,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="8" t="s">
         <v>194</v>
       </c>
@@ -12046,10 +12093,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="10">
         <v>1.9</v>
       </c>
@@ -12071,10 +12118,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="10">
         <v>2</v>
       </c>
@@ -12096,10 +12143,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="10">
         <v>0</v>
       </c>
@@ -12121,10 +12168,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B8" s="24"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="10">
         <v>2</v>
       </c>
@@ -12183,10 +12230,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="24"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="10">
         <v>2</v>
       </c>
@@ -12204,10 +12251,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="24"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="10">
         <v>0</v>
       </c>
@@ -12225,10 +12272,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="10">
         <v>2</v>
       </c>
@@ -12247,17 +12294,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data Tabel Keperluan Metode Methontology.xlsx
+++ b/Data Tabel Keperluan Metode Methontology.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\asd\New folder\Tugas-Akhir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Season 7 - Final\TA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF0F040-BCFE-47E0-B7A4-9AD238F5A0E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1920,7 +1919,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2344,6 +2343,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2369,7 +2369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2517,7 +2517,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485402008"/>
@@ -2576,7 +2576,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="485396432"/>
@@ -2619,7 +2619,7 @@
           <a:latin typeface="Gilroy" panose="00000500000000000000" pitchFamily="50" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2672,6 +2672,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2697,7 +2698,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2845,7 +2846,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="486460552"/>
@@ -2904,7 +2905,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="486460224"/>
@@ -2948,7 +2949,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3018,7 +3019,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3157,7 +3158,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495715256"/>
@@ -3213,7 +3214,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="495712304"/>
@@ -3260,7 +3261,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3313,6 +3314,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3335,7 +3337,7 @@
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="id-ID"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3474,7 +3476,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="398452808"/>
@@ -3530,7 +3532,7 @@
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="id-ID"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="398456088"/>
@@ -3577,7 +3579,7 @@
           <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="id-ID"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6186,7 +6188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6287,10 +6289,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6594,17 +6596,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6612,7 +6614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6893,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7005,7 +7007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7685,11 +7687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H408"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11295,7 +11297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11326,7 +11328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11633,17 +11635,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11651,7 +11653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11999,7 +12001,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12294,17 +12296,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
